--- a/resources/xlsx/export_billing_detail.xlsx
+++ b/resources/xlsx/export_billing_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mmj\project\PHP\MARGO-BARU\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC2B05-353F-42FE-B2D1-20809C478DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F589E400-8D22-4A3A-9172-55336CD90A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16F53B30-EA35-46C9-9529-5DBEDB6DC1E5}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>Saldo Hutang</t>
   </si>
   <si>
-    <t>SALDO BILLING [semester]</t>
-  </si>
-  <si>
     <t>[salesperson.marketing_area.name]</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>[current_bills]</t>
+  </si>
+  <si>
+    <t>SALDO BILLING [semester] - [salesperson.name]</t>
   </si>
 </sst>
 </file>
@@ -862,6 +862,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -906,9 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -932,12 +932,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -965,8 +959,14 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1308,7 +1308,7 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J4"/>
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,66 +1321,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" s="7"/>
@@ -1392,29 +1392,29 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="G8" s="51" t="s">
-        <v>170</v>
+      <c r="E8" s="28"/>
+      <c r="G8" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8" s="58"/>
     </row>
@@ -1422,54 +1422,54 @@
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="56"/>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="45">
-        <v>0</v>
-      </c>
-      <c r="E11" s="46"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="43">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1478,12 +1478,12 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
@@ -1513,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1521,78 +1521,78 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="G16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="H16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="J16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="35" t="s">
-        <v>35</v>
-      </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="8">
         <f>SUM(G16:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="45">
         <f>SUM(H16:H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="45">
         <f>SUM(I16:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="46">
         <f>SUM(J16:J16)</f>
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1601,12 +1601,12 @@
       <c r="I19" s="14"/>
       <c r="J19" s="16"/>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>6</v>
@@ -1636,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1644,63 +1644,63 @@
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="G21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="H21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="J21" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="35" t="s">
-        <v>46</v>
-      </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="8">
         <f>SUM(G21:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="45">
         <f>SUM(H21:H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="45">
         <f>SUM(I21:I21)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="46">
         <f>SUM(J21:J21)</f>
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1713,17 +1713,17 @@
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1732,12 +1732,12 @@
       <c r="I24" s="14"/>
       <c r="J24" s="16"/>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1775,63 +1775,63 @@
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="G26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="H26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="I26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="J26" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="35" t="s">
-        <v>59</v>
-      </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="8">
         <f>SUM(G26:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="45">
         <f>SUM(H26:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="45">
         <f>SUM(I26:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="46">
         <f>SUM(J26:J26)</f>
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1844,17 +1844,17 @@
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -1863,12 +1863,12 @@
       <c r="I29" s="14"/>
       <c r="J29" s="16"/>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>6</v>
@@ -1898,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1906,63 +1906,63 @@
         <v>1</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="G31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="H31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="J31" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="35" t="s">
-        <v>71</v>
-      </c>
       <c r="K31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="8">
         <f>SUM(G31:G31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="45">
         <f>SUM(H31:H31)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="45">
         <f>SUM(I31:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="48">
+      <c r="J32" s="46">
         <f>SUM(J31:J31)</f>
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1975,17 +1975,17 @@
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
       <c r="K33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -1994,12 +1994,12 @@
       <c r="I34" s="14"/>
       <c r="J34" s="16"/>
       <c r="K34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>6</v>
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2037,63 +2037,63 @@
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="G36" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="H36" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="I36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="J36" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="J36" s="35" t="s">
-        <v>84</v>
-      </c>
       <c r="K36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="8">
         <f>SUM(G36:G36)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="47">
         <f>SUM(H36:H36)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="47">
         <f>SUM(I36:I36)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37" s="48">
         <f>SUM(J36:J36)</f>
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2106,17 +2106,17 @@
       <c r="I38" s="11"/>
       <c r="J38" s="9"/>
       <c r="K38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -2125,12 +2125,12 @@
       <c r="I39" s="14"/>
       <c r="J39" s="16"/>
       <c r="K39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
@@ -2160,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2168,63 +2168,63 @@
         <v>1</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="G41" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="H41" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="I41" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="J41" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="J41" s="35" t="s">
-        <v>96</v>
-      </c>
       <c r="K41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="8">
         <f>SUM(G41:G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="49">
+      <c r="H42" s="47">
         <f>SUM(H41:H41)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="47">
         <f>SUM(I41:I41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="50">
+      <c r="J42" s="48">
         <f>SUM(J41:J41)</f>
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2237,17 +2237,17 @@
       <c r="I43" s="11"/>
       <c r="J43" s="9"/>
       <c r="K43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -2256,12 +2256,12 @@
       <c r="I44" s="14"/>
       <c r="J44" s="16"/>
       <c r="K44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>6</v>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
       <c r="K45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2299,63 +2299,63 @@
         <v>1</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="G46" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="H46" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="I46" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="J46" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J46" s="35" t="s">
-        <v>108</v>
-      </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="G47" s="8">
         <f>SUM(G46:G46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="47">
         <f>SUM(H46:H46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I47" s="47">
         <f>SUM(I46:I46)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="50">
+      <c r="J47" s="48">
         <f>SUM(J46:J46)</f>
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2368,17 +2368,17 @@
       <c r="I48" s="11"/>
       <c r="J48" s="9"/>
       <c r="K48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -2387,12 +2387,12 @@
       <c r="I49" s="14"/>
       <c r="J49" s="16"/>
       <c r="K49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>6</v>
@@ -2422,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="K50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2430,63 +2430,63 @@
         <v>1</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="G51" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="H51" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="I51" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="J51" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J51" s="35" t="s">
-        <v>120</v>
-      </c>
       <c r="K51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="8">
         <f>SUM(G51:G51)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="47">
         <f>SUM(H51:H51)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="49">
+      <c r="I52" s="47">
         <f>SUM(I51:I51)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="50">
+      <c r="J52" s="48">
         <f>SUM(J51:J51)</f>
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2499,17 +2499,17 @@
       <c r="I53" s="11"/>
       <c r="J53" s="9"/>
       <c r="K53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -2518,12 +2518,12 @@
       <c r="I54" s="14"/>
       <c r="J54" s="16"/>
       <c r="K54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>6</v>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="K55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2561,63 +2561,63 @@
         <v>1</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="G56" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G56" s="33" t="s">
+      <c r="H56" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="J56" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="J56" s="35" t="s">
-        <v>132</v>
-      </c>
       <c r="K56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="8">
         <f>SUM(G56:G56)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H57" s="47">
         <f>SUM(H56:H56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="49">
+      <c r="I57" s="47">
         <f>SUM(I56:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="50">
+      <c r="J57" s="48">
         <f>SUM(J56:J56)</f>
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2630,17 +2630,17 @@
       <c r="I58" s="11"/>
       <c r="J58" s="9"/>
       <c r="K58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -2649,12 +2649,12 @@
       <c r="I59" s="14"/>
       <c r="J59" s="16"/>
       <c r="K59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>6</v>
@@ -2684,7 +2684,7 @@
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,63 +2692,63 @@
         <v>1</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="G61" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="H61" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H61" s="17" t="s">
+      <c r="I61" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="J61" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="J61" s="35" t="s">
-        <v>144</v>
-      </c>
       <c r="K61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
       <c r="G62" s="8">
         <f>SUM(G61:G61)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="47">
         <f>SUM(H61:H61)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="49">
+      <c r="I62" s="47">
         <f>SUM(I61:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="50">
+      <c r="J62" s="48">
         <f>SUM(J61:J61)</f>
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2761,17 +2761,17 @@
       <c r="I63" s="11"/>
       <c r="J63" s="9"/>
       <c r="K63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -2780,12 +2780,12 @@
       <c r="I64" s="14"/>
       <c r="J64" s="16"/>
       <c r="K64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>6</v>
@@ -2815,7 +2815,7 @@
         <v>4</v>
       </c>
       <c r="K65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2823,63 +2823,63 @@
         <v>1</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="G66" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="H66" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H66" s="17" t="s">
+      <c r="I66" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="J66" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="J66" s="35" t="s">
-        <v>156</v>
-      </c>
       <c r="K66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
       <c r="G67" s="8">
         <f>SUM(G66:G66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="49">
+      <c r="H67" s="47">
         <f>SUM(H66:H66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="49">
+      <c r="I67" s="47">
         <f>SUM(I66:I66)</f>
         <v>0</v>
       </c>
-      <c r="J67" s="50">
+      <c r="J67" s="48">
         <f>SUM(J66:J66)</f>
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2892,22 +2892,22 @@
       <c r="I68" s="11"/>
       <c r="J68" s="9"/>
       <c r="K68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="16"/>
       <c r="G69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -2915,12 +2915,12 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="25"/>
+        <v>157</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="26"/>
       <c r="D70" s="3" t="s">
         <v>10</v>
       </c>
@@ -2928,34 +2928,34 @@
         <v>11</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="53">
+      <c r="A71" s="51">
         <v>1</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" t="s">
         <v>178</v>
-      </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="F71" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="G71" t="s">
-        <v>179</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -2967,7 +2967,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="11"/>
       <c r="G72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -2975,31 +2975,31 @@
     </row>
     <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3007,45 +3007,45 @@
         <v>1</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E75" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>164</v>
-      </c>
       <c r="G75" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H75" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I75" s="52" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="50" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="52" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="36"/>

--- a/resources/xlsx/export_billing_detail.xlsx
+++ b/resources/xlsx/export_billing_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mmj\project\PHP\MARGO-BARU\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F589E400-8D22-4A3A-9172-55336CD90A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88751706-C659-4008-9639-5944CDF7E5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16F53B30-EA35-46C9-9529-5DBEDB6DC1E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="381">
   <si>
     <t>Nama Sales</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Area Pemasaran</t>
   </si>
   <si>
+    <t>FAKTUR PENJUALAN</t>
+  </si>
+  <si>
     <t>Tanggal</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
     <t>[bills.saldo_akhir]</t>
   </si>
   <si>
-    <t>PENJUALAN</t>
-  </si>
-  <si>
     <t>[=bills]</t>
   </si>
   <si>
@@ -506,9 +506,6 @@
     <t>[invoices11.items.subtotal]</t>
   </si>
   <si>
-    <t>PEMBAYARAN</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>[payments.amount]</t>
   </si>
   <si>
-    <t>Belum Ada Pembyaran</t>
-  </si>
-  <si>
     <t>Bill Kosong</t>
   </si>
   <si>
@@ -582,6 +576,609 @@
   </si>
   <si>
     <t>SALDO BILLING [semester] - [salesperson.name]</t>
+  </si>
+  <si>
+    <t>FAKTUR PEMBAYARAN</t>
+  </si>
+  <si>
+    <t>Belum Ada Pembayaran</t>
+  </si>
+  <si>
+    <t>Belum Ada Penjualan</t>
+  </si>
+  <si>
+    <t>[!invoices1]</t>
+  </si>
+  <si>
+    <t>[payments.discount]</t>
+  </si>
+  <si>
+    <t>[invoices12.number]</t>
+  </si>
+  <si>
+    <t>[invoices12.date]</t>
+  </si>
+  <si>
+    <t>[=invoices12]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices13.number]</t>
+  </si>
+  <si>
+    <t>[invoices13.date]</t>
+  </si>
+  <si>
+    <t>[=invoices13]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices14.number]</t>
+  </si>
+  <si>
+    <t>[invoices14.date]</t>
+  </si>
+  <si>
+    <t>[=invoices14]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices15.number]</t>
+  </si>
+  <si>
+    <t>[invoices15.date]</t>
+  </si>
+  <si>
+    <t>[=invoices15]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices16.number]</t>
+  </si>
+  <si>
+    <t>[invoices16.date]</t>
+  </si>
+  <si>
+    <t>[=invoices16]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices17.number]</t>
+  </si>
+  <si>
+    <t>[invoices17.date]</t>
+  </si>
+  <si>
+    <t>[=invoices17]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices18.number]</t>
+  </si>
+  <si>
+    <t>[invoices18.date]</t>
+  </si>
+  <si>
+    <t>[=invoices18]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices19.number]</t>
+  </si>
+  <si>
+    <t>[invoices19.date]</t>
+  </si>
+  <si>
+    <t>[=invoices19]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices20.number]</t>
+  </si>
+  <si>
+    <t>[invoices20.date]</t>
+  </si>
+  <si>
+    <t>[=invoices20]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices21.number]</t>
+  </si>
+  <si>
+    <t>[invoices21.date]</t>
+  </si>
+  <si>
+    <t>[=invoices21]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices22.number]</t>
+  </si>
+  <si>
+    <t>[invoices22.date]</t>
+  </si>
+  <si>
+    <t>[=invoices22]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices23.number]</t>
+  </si>
+  <si>
+    <t>[invoices23.date]</t>
+  </si>
+  <si>
+    <t>[=invoices23]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices24.number]</t>
+  </si>
+  <si>
+    <t>[invoices24.date]</t>
+  </si>
+  <si>
+    <t>[=invoices24]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[invoices25.number]</t>
+  </si>
+  <si>
+    <t>[invoices25.date]</t>
+  </si>
+  <si>
+    <t>[=invoices25]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.mapel]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.kelas]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.halaman]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.price]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.quantity]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.total]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.total_discount]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[additional_invoices2.number]</t>
+  </si>
+  <si>
+    <t>[additional_invoices2.date]</t>
+  </si>
+  <si>
+    <t>[=additional_invoices2]</t>
+  </si>
+  <si>
+    <t>[additional_invoices2.note]</t>
+  </si>
+  <si>
+    <t>[additional_invoices2.total]</t>
+  </si>
+  <si>
+    <t>[additional_invoices2.discount]</t>
+  </si>
+  <si>
+    <t>[additional_invoices2.nominal]</t>
+  </si>
+  <si>
+    <t>[additional_invoices3.number]</t>
+  </si>
+  <si>
+    <t>[additional_invoices3.date]</t>
+  </si>
+  <si>
+    <t>[=additional_invoices3]</t>
+  </si>
+  <si>
+    <t>[additional_invoices3.note]</t>
+  </si>
+  <si>
+    <t>[additional_invoices3.total]</t>
+  </si>
+  <si>
+    <t>[additional_invoices3.discount]</t>
+  </si>
+  <si>
+    <t>[additional_invoices3.nominal]</t>
+  </si>
+  <si>
+    <t>[additional_invoices4.number]</t>
+  </si>
+  <si>
+    <t>[additional_invoices4.date]</t>
+  </si>
+  <si>
+    <t>[=additional_invoices4]</t>
+  </si>
+  <si>
+    <t>[additional_invoices4.note]</t>
+  </si>
+  <si>
+    <t>[additional_invoices4.total]</t>
+  </si>
+  <si>
+    <t>[additional_invoices4.discount]</t>
+  </si>
+  <si>
+    <t>[additional_invoices4.nominal]</t>
+  </si>
+  <si>
+    <t>[additional_invoices5.number]</t>
+  </si>
+  <si>
+    <t>[additional_invoices5.date]</t>
+  </si>
+  <si>
+    <t>[=additional_invoices5]</t>
+  </si>
+  <si>
+    <t>[additional_invoices5.note]</t>
+  </si>
+  <si>
+    <t>[additional_invoices5.total]</t>
+  </si>
+  <si>
+    <t>[additional_invoices5.discount]</t>
+  </si>
+  <si>
+    <t>[additional_invoices5.nominal]</t>
   </si>
 </sst>
 </file>
@@ -933,12 +1530,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -967,6 +1558,12 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1305,10 +1902,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K77"/>
+  <dimension ref="A2:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,7 +1919,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1356,7 +1953,7 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1368,11 +1965,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -1393,50 +1990,50 @@
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="28"/>
-      <c r="G8" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8" s="58"/>
+      <c r="G8" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="56"/>
+      <c r="D9" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="54"/>
       <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -1448,18 +2045,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="43">
-        <v>0</v>
-      </c>
-      <c r="E11" s="44"/>
+      <c r="D11" s="57">
+        <f>SUM(D9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1483,34 +2081,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
@@ -1553,7 +2151,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1564,15 +2162,15 @@
         <f>SUM(G16:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="43">
         <f>SUM(H16:H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="43">
         <f>SUM(I16:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="44">
         <f>SUM(J16:J16)</f>
         <v>0</v>
       </c>
@@ -1586,13 +2184,15 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>35</v>
+      <c r="A19" s="13" t="str">
+        <f>"-"</f>
+        <v>-</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="15" t="s">
-        <v>36</v>
+      <c r="D19" s="13" t="str">
+        <f>"-"</f>
+        <v>-</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1601,82 +2201,64 @@
       <c r="I19" s="14"/>
       <c r="J19" s="16"/>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J20" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>45</v>
-      </c>
+      <c r="A21" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -1687,43 +2269,35 @@
         <f>SUM(G21:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="43">
         <f>SUM(H21:H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="43">
         <f>SUM(I21:I21)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="44">
         <f>SUM(J21:J21)</f>
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -1732,42 +2306,42 @@
       <c r="I24" s="14"/>
       <c r="J24" s="16"/>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J25" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1775,39 +2349,39 @@
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -1818,20 +2392,20 @@
         <f>SUM(G26:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="43">
         <f>SUM(H26:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="43">
         <f>SUM(I26:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="44">
         <f>SUM(J26:J26)</f>
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1844,17 +2418,17 @@
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -1863,42 +2437,42 @@
       <c r="I29" s="14"/>
       <c r="J29" s="16"/>
       <c r="K29" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J30" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1906,39 +2480,39 @@
         <v>1</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -1949,20 +2523,20 @@
         <f>SUM(G31:G31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="43">
         <f>SUM(H31:H31)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="43">
         <f>SUM(I31:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="44">
         <f>SUM(J31:J31)</f>
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1975,17 +2549,17 @@
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
       <c r="K33" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -1994,42 +2568,42 @@
       <c r="I34" s="14"/>
       <c r="J34" s="16"/>
       <c r="K34" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J35" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2037,39 +2611,39 @@
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2080,20 +2654,20 @@
         <f>SUM(G36:G36)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="43">
         <f>SUM(H36:H36)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="47">
+      <c r="I37" s="43">
         <f>SUM(I36:I36)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="44">
         <f>SUM(J36:J36)</f>
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2106,17 +2680,17 @@
       <c r="I38" s="11"/>
       <c r="J38" s="9"/>
       <c r="K38" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -2125,42 +2699,42 @@
       <c r="I39" s="14"/>
       <c r="J39" s="16"/>
       <c r="K39" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J40" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2168,39 +2742,39 @@
         <v>1</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J41" s="35" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2211,20 +2785,20 @@
         <f>SUM(G41:G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="45">
         <f>SUM(H41:H41)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="47">
+      <c r="I42" s="45">
         <f>SUM(I41:I41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="48">
+      <c r="J42" s="46">
         <f>SUM(J41:J41)</f>
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2237,17 +2811,17 @@
       <c r="I43" s="11"/>
       <c r="J43" s="9"/>
       <c r="K43" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
@@ -2256,42 +2830,42 @@
       <c r="I44" s="14"/>
       <c r="J44" s="16"/>
       <c r="K44" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K45" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2299,39 +2873,39 @@
         <v>1</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2342,20 +2916,20 @@
         <f>SUM(G46:G46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="45">
         <f>SUM(H46:H46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="45">
         <f>SUM(I46:I46)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="48">
+      <c r="J47" s="46">
         <f>SUM(J46:J46)</f>
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2368,17 +2942,17 @@
       <c r="I48" s="11"/>
       <c r="J48" s="9"/>
       <c r="K48" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -2387,42 +2961,42 @@
       <c r="I49" s="14"/>
       <c r="J49" s="16"/>
       <c r="K49" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J50" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2430,39 +3004,39 @@
         <v>1</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J51" s="35" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2473,20 +3047,20 @@
         <f>SUM(G51:G51)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="45">
         <f>SUM(H51:H51)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="47">
+      <c r="I52" s="45">
         <f>SUM(I51:I51)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="48">
+      <c r="J52" s="46">
         <f>SUM(J51:J51)</f>
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2499,17 +3073,17 @@
       <c r="I53" s="11"/>
       <c r="J53" s="9"/>
       <c r="K53" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="15" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
@@ -2518,42 +3092,42 @@
       <c r="I54" s="14"/>
       <c r="J54" s="16"/>
       <c r="K54" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J55" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2561,39 +3135,39 @@
         <v>1</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J56" s="35" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2604,20 +3178,20 @@
         <f>SUM(G56:G56)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57" s="45">
         <f>SUM(H56:H56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="47">
+      <c r="I57" s="45">
         <f>SUM(I56:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="48">
+      <c r="J57" s="46">
         <f>SUM(J56:J56)</f>
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2630,17 +3204,17 @@
       <c r="I58" s="11"/>
       <c r="J58" s="9"/>
       <c r="K58" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
@@ -2649,42 +3223,42 @@
       <c r="I59" s="14"/>
       <c r="J59" s="16"/>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J60" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K60" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,39 +3266,39 @@
         <v>1</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J61" s="35" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -2735,20 +3309,20 @@
         <f>SUM(G61:G61)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="47">
+      <c r="H62" s="45">
         <f>SUM(H61:H61)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="47">
+      <c r="I62" s="45">
         <f>SUM(I61:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="48">
+      <c r="J62" s="46">
         <f>SUM(J61:J61)</f>
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -2761,17 +3335,17 @@
       <c r="I63" s="11"/>
       <c r="J63" s="9"/>
       <c r="K63" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
@@ -2780,42 +3354,42 @@
       <c r="I64" s="14"/>
       <c r="J64" s="16"/>
       <c r="K64" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J65" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K65" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -2823,39 +3397,39 @@
         <v>1</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F66" s="34" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K66" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2866,20 +3440,20 @@
         <f>SUM(G66:G66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="45">
         <f>SUM(H66:H66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="47">
+      <c r="I67" s="45">
         <f>SUM(I66:I66)</f>
         <v>0</v>
       </c>
-      <c r="J67" s="48">
+      <c r="J67" s="46">
         <f>SUM(J66:J66)</f>
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -2892,195 +3466,2494 @@
       <c r="I68" s="11"/>
       <c r="J68" s="9"/>
       <c r="K68" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E69" s="14"/>
-      <c r="F69" s="16"/>
-      <c r="G69" t="s">
-        <v>178</v>
-      </c>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="9"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="16"/>
+      <c r="K69" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="26"/>
+        <v>156</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" t="s">
-        <v>178</v>
-      </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="9"/>
+      <c r="I70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="51">
+      <c r="A71" s="5">
         <v>1</v>
       </c>
-      <c r="B71" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="G71" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="9"/>
+      <c r="B71" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J71" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="K71" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="11"/>
-      <c r="G72" t="s">
-        <v>178</v>
-      </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+      <c r="A72" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="8">
+        <f>SUM(G71:G71)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="45">
+        <f>SUM(H71:H71)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="45">
+        <f>SUM(I71:I71)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="46">
+        <f>SUM(J71:J71)</f>
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="9"/>
+      <c r="K73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="16"/>
+      <c r="K74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="5">
+      <c r="I75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
         <v>1</v>
       </c>
-      <c r="B75" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H75" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I75" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="50" t="s">
-        <v>171</v>
+      <c r="B76" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J76" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="K76" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="8">
+        <f>SUM(G76:G76)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="43">
+        <f>SUM(H76:H76)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="43">
+        <f>SUM(I76:I76)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="44">
+        <f>SUM(J76:J76)</f>
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="10"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="9"/>
+      <c r="K78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="16"/>
+      <c r="K79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="40">
-        <f>SUM(F75:F75)</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="40">
-        <f>SUM(G75:G75)</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="41">
-        <f>SUM(H75:H75)</f>
+      <c r="K80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>1</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J81" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="K81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="8">
+        <f>SUM(G81:G81)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="43">
+        <f>SUM(H81:H81)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="43">
+        <f>SUM(I81:I81)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="44">
+        <f>SUM(J81:J81)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="9"/>
+      <c r="K83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="16"/>
+      <c r="K84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>1</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="J86" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="K86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="8">
+        <f>SUM(G86:G86)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="43">
+        <f>SUM(H86:H86)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="43">
+        <f>SUM(I86:I86)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="44">
+        <f>SUM(J86:J86)</f>
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="9"/>
+      <c r="K88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="16"/>
+      <c r="K89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>1</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J91" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K91" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="8">
+        <f>SUM(G91:G91)</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="45">
+        <f>SUM(H91:H91)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="45">
+        <f>SUM(I91:I91)</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="46">
+        <f>SUM(J91:J91)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="9"/>
+      <c r="K93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="16"/>
+      <c r="K94" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K95" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>1</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J96" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="K96" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="8">
+        <f>SUM(G96:G96)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="45">
+        <f>SUM(H96:H96)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="45">
+        <f>SUM(I96:I96)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="46">
+        <f>SUM(J96:J96)</f>
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="10"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="9"/>
+      <c r="K98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="16"/>
+      <c r="K99" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>1</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="J101" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="K101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="8">
+        <f>SUM(G101:G101)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="45">
+        <f>SUM(H101:H101)</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="45">
+        <f>SUM(I101:I101)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="46">
+        <f>SUM(J101:J101)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="9"/>
+      <c r="K103" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="16"/>
+      <c r="K104" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>1</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F106" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="J106" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="K106" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="8">
+        <f>SUM(G106:G106)</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="45">
+        <f>SUM(H106:H106)</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="45">
+        <f>SUM(I106:I106)</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="46">
+        <f>SUM(J106:J106)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="10"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="9"/>
+      <c r="K108" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="16"/>
+      <c r="K109" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K110" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>1</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F111" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="J111" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="K111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="8">
+        <f>SUM(G111:G111)</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="45">
+        <f>SUM(H111:H111)</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="45">
+        <f>SUM(I111:I111)</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="46">
+        <f>SUM(J111:J111)</f>
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="10"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="9"/>
+      <c r="K113" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="16"/>
+      <c r="K114" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K115" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>1</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F116" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="J116" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K116" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="8">
+        <f>SUM(G116:G116)</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="45">
+        <f>SUM(H116:H116)</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="45">
+        <f>SUM(I116:I116)</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="46">
+        <f>SUM(J116:J116)</f>
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="10"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="9"/>
+      <c r="K118" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="16"/>
+      <c r="K119" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K120" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>1</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F121" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="I121" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="J121" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="8">
+        <f>SUM(G121:G121)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="45">
+        <f>SUM(H121:H121)</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="45">
+        <f>SUM(I121:I121)</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="46">
+        <f>SUM(J121:J121)</f>
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="10"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="9"/>
+      <c r="K123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="16"/>
+      <c r="K124" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K125" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <v>1</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F126" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="J126" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="K126" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="8">
+        <f>SUM(G126:G126)</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="43">
+        <f>SUM(H126:H126)</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="43">
+        <f>SUM(I126:I126)</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="44">
+        <f>SUM(J126:J126)</f>
+        <v>0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="10"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="9"/>
+      <c r="K128" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="16"/>
+      <c r="K129" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K130" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>1</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="J131" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="K131" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="8">
+        <f>SUM(G131:G131)</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="43">
+        <f>SUM(H131:H131)</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="43">
+        <f>SUM(I131:I131)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="44">
+        <f>SUM(J131:J131)</f>
+        <v>0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="10"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="9"/>
+      <c r="K133" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="16"/>
+      <c r="K134" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K135" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>1</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="J136" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="K136" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="8">
+        <f>SUM(G136:G136)</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="43">
+        <f>SUM(H136:H136)</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="43">
+        <f>SUM(I136:I136)</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="44">
+        <f>SUM(J136:J136)</f>
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="10"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="9"/>
+      <c r="K138" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="16"/>
+      <c r="K139" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K140" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>1</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F141" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H141" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="I141" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="J141" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="K141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="8">
+        <f>SUM(G141:G141)</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="45">
+        <f>SUM(H141:H141)</f>
+        <v>0</v>
+      </c>
+      <c r="I142" s="45">
+        <f>SUM(I141:I141)</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="46">
+        <f>SUM(J141:J141)</f>
+        <v>0</v>
+      </c>
+      <c r="K142" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="10"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="9"/>
+      <c r="K143" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E144" s="14"/>
+      <c r="F144" s="16"/>
+      <c r="G144" t="s">
+        <v>176</v>
+      </c>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="9"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145" s="26"/>
+      <c r="D145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G145" t="s">
+        <v>176</v>
+      </c>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="9"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="49">
+        <v>1</v>
+      </c>
+      <c r="B146" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="50"/>
+      <c r="D146" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F146" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G146" t="s">
+        <v>176</v>
+      </c>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="9"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="10"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="11"/>
+      <c r="G147" t="s">
+        <v>176</v>
+      </c>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="9"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E148" s="14"/>
+      <c r="F148" s="16"/>
+      <c r="G148" t="s">
+        <v>355</v>
+      </c>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="9"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C149" s="26"/>
+      <c r="D149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G149" t="s">
+        <v>355</v>
+      </c>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="9"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="49">
+        <v>1</v>
+      </c>
+      <c r="B150" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="C150" s="50"/>
+      <c r="D150" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="E150" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F150" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="G150" t="s">
+        <v>355</v>
+      </c>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="9"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="10"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="11"/>
+      <c r="G151" t="s">
+        <v>355</v>
+      </c>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="9"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E152" s="14"/>
+      <c r="F152" s="16"/>
+      <c r="G152" t="s">
+        <v>362</v>
+      </c>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="9"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" s="26"/>
+      <c r="D153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G153" t="s">
+        <v>362</v>
+      </c>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="9"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="49">
+        <v>1</v>
+      </c>
+      <c r="B154" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" s="50"/>
+      <c r="D154" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="E154" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="F154" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G154" t="s">
+        <v>362</v>
+      </c>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="9"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="10"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="11"/>
+      <c r="G155" t="s">
+        <v>362</v>
+      </c>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="9"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E156" s="14"/>
+      <c r="F156" s="16"/>
+      <c r="G156" t="s">
+        <v>369</v>
+      </c>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="9"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G157" t="s">
+        <v>369</v>
+      </c>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="9"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="49">
+        <v>1</v>
+      </c>
+      <c r="B158" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="C158" s="50"/>
+      <c r="D158" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="E158" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="F158" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="G158" t="s">
+        <v>369</v>
+      </c>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="9"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="10"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="11"/>
+      <c r="G159" t="s">
+        <v>369</v>
+      </c>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="9"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E160" s="14"/>
+      <c r="F160" s="16"/>
+      <c r="G160" t="s">
+        <v>376</v>
+      </c>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="9"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="26"/>
+      <c r="D161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G161" t="s">
+        <v>376</v>
+      </c>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="9"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="49">
+        <v>1</v>
+      </c>
+      <c r="B162" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="C162" s="50"/>
+      <c r="D162" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E162" s="51" t="s">
+        <v>379</v>
+      </c>
+      <c r="F162" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="G162" t="s">
+        <v>376</v>
+      </c>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="9"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="10"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="11"/>
+      <c r="G163" t="s">
+        <v>376</v>
+      </c>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="9"/>
+    </row>
+    <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" s="26"/>
+      <c r="D165" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>1</v>
+      </c>
+      <c r="B166" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="37"/>
+      <c r="D166" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E166" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F166" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G166" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H166" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I166" s="48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="36"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="40">
+        <f>SUM(F166:F166)</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="40">
+        <f>SUM(G166:G166)</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="41">
+        <f>SUM(H166:H166)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A76:H76"/>
+  <mergeCells count="57">
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A167:H167"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="A62:F62"/>
     <mergeCell ref="A67:F67"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -3089,8 +5962,10 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:J21"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A2:J2"/>
@@ -3102,6 +5977,6 @@
     <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/xlsx/export_billing_detail.xlsx
+++ b/resources/xlsx/export_billing_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mmj\project\PHP\MARGO-BARU\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88751706-C659-4008-9639-5944CDF7E5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2F98F-9425-44F1-9894-01B23DCDE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16F53B30-EA35-46C9-9529-5DBEDB6DC1E5}"/>
   </bookViews>
@@ -1905,12 +1905,12 @@
   <dimension ref="A2:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="47.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -5808,7 +5808,6 @@
       <c r="G162" t="s">
         <v>376</v>
       </c>
-      <c r="H162" s="11"/>
       <c r="I162" s="11"/>
       <c r="J162" s="9"/>
     </row>
@@ -5820,7 +5819,6 @@
       <c r="G163" t="s">
         <v>376</v>
       </c>
-      <c r="H163" s="11"/>
       <c r="I163" s="11"/>
       <c r="J163" s="9"/>
     </row>
@@ -5977,6 +5975,6 @@
     <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/xlsx/export_billing_detail.xlsx
+++ b/resources/xlsx/export_billing_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mmj\project\PHP\MARGO-BARU\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2F98F-9425-44F1-9894-01B23DCDE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E5262-6FE1-4C35-8304-D5A59D28E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16F53B30-EA35-46C9-9529-5DBEDB6DC1E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="439">
   <si>
     <t>Nama Sales</t>
   </si>
@@ -575,9 +575,6 @@
     <t>[current_bills]</t>
   </si>
   <si>
-    <t>SALDO BILLING [semester] - [salesperson.name]</t>
-  </si>
-  <si>
     <t>FAKTUR PEMBAYARAN</t>
   </si>
   <si>
@@ -1179,6 +1176,183 @@
   </si>
   <si>
     <t>[additional_invoices5.nominal]</t>
+  </si>
+  <si>
+    <t>SALDO BILLING [semester] - [salesperson.name] - [salesperson.marketing_area.name]</t>
+  </si>
+  <si>
+    <t>FAKTUR RETUR</t>
+  </si>
+  <si>
+    <t>[returs1.number]</t>
+  </si>
+  <si>
+    <t>[returs1.date]</t>
+  </si>
+  <si>
+    <t>[=returs1]</t>
+  </si>
+  <si>
+    <t>[returs1.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[returs1.items.mapel]</t>
+  </si>
+  <si>
+    <t>[returs1.items.kelas]</t>
+  </si>
+  <si>
+    <t>[returs1.items.halaman]</t>
+  </si>
+  <si>
+    <t>[returs1.items.price]</t>
+  </si>
+  <si>
+    <t>[returs1.items.quantity]</t>
+  </si>
+  <si>
+    <t>[returs1.items.total]</t>
+  </si>
+  <si>
+    <t>[returs1.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[!returs1]</t>
+  </si>
+  <si>
+    <t>[returs2.number]</t>
+  </si>
+  <si>
+    <t>[returs2.date]</t>
+  </si>
+  <si>
+    <t>[=returs2]</t>
+  </si>
+  <si>
+    <t>[returs2.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[returs2.items.mapel]</t>
+  </si>
+  <si>
+    <t>[returs2.items.kelas]</t>
+  </si>
+  <si>
+    <t>[returs2.items.halaman]</t>
+  </si>
+  <si>
+    <t>[returs2.items.price]</t>
+  </si>
+  <si>
+    <t>[returs2.items.quantity]</t>
+  </si>
+  <si>
+    <t>[returs2.items.total]</t>
+  </si>
+  <si>
+    <t>[returs2.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[returs3.number]</t>
+  </si>
+  <si>
+    <t>[returs3.date]</t>
+  </si>
+  <si>
+    <t>[=returs3]</t>
+  </si>
+  <si>
+    <t>[returs3.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[returs3.items.mapel]</t>
+  </si>
+  <si>
+    <t>[returs3.items.kelas]</t>
+  </si>
+  <si>
+    <t>[returs3.items.halaman]</t>
+  </si>
+  <si>
+    <t>[returs3.items.price]</t>
+  </si>
+  <si>
+    <t>[returs3.items.quantity]</t>
+  </si>
+  <si>
+    <t>[returs3.items.total]</t>
+  </si>
+  <si>
+    <t>[returs3.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[returs4.number]</t>
+  </si>
+  <si>
+    <t>[returs4.date]</t>
+  </si>
+  <si>
+    <t>[=returs4]</t>
+  </si>
+  <si>
+    <t>[returs4.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[returs4.items.mapel]</t>
+  </si>
+  <si>
+    <t>[returs4.items.kelas]</t>
+  </si>
+  <si>
+    <t>[returs4.items.halaman]</t>
+  </si>
+  <si>
+    <t>[returs4.items.price]</t>
+  </si>
+  <si>
+    <t>[returs4.items.quantity]</t>
+  </si>
+  <si>
+    <t>[returs4.items.total]</t>
+  </si>
+  <si>
+    <t>[returs4.items.subtotal]</t>
+  </si>
+  <si>
+    <t>[returs5.number]</t>
+  </si>
+  <si>
+    <t>[returs5.date]</t>
+  </si>
+  <si>
+    <t>[=returs5]</t>
+  </si>
+  <si>
+    <t>[returs5.items.jenjang]</t>
+  </si>
+  <si>
+    <t>[returs5.items.mapel]</t>
+  </si>
+  <si>
+    <t>[returs5.items.kelas]</t>
+  </si>
+  <si>
+    <t>[returs5.items.halaman]</t>
+  </si>
+  <si>
+    <t>[returs5.items.price]</t>
+  </si>
+  <si>
+    <t>[returs5.items.quantity]</t>
+  </si>
+  <si>
+    <t>[returs5.items.total]</t>
+  </si>
+  <si>
+    <t>[returs5.items.subtotal]</t>
+  </si>
+  <si>
+    <t>Belum Ada Retur</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1362,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1422,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,20 +1630,88 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,88 +1722,16 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1902,10 +2072,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K168"/>
+  <dimension ref="A2:K199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="B172" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,66 +2088,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="23" t="s">
+      <c r="A3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" s="7"/>
@@ -1989,71 +2159,71 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="G8" s="47" t="s">
+      <c r="E8" s="41"/>
+      <c r="G8" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="56"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="43"/>
       <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
       <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="57">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46">
         <f>SUM(D9:D9)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -2130,10 +2300,10 @@
       <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="56" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="17" t="s">
@@ -2142,7 +2312,7 @@
       <c r="I16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="K16" t="s">
@@ -2150,27 +2320,27 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="8">
         <f>SUM(G16:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="21">
         <f>SUM(H16:H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="21">
         <f>SUM(I16:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="22">
         <f>SUM(J16:J16)</f>
         <v>0</v>
       </c>
@@ -2201,7 +2371,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="16"/>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2236,58 +2406,58 @@
         <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="8">
         <f>SUM(G21:G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="21">
         <f>SUM(H21:H21)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="21">
         <f>SUM(I21:I21)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="22">
         <f>SUM(J21:J21)</f>
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2360,10 +2530,10 @@
       <c r="E26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="56" t="s">
         <v>42</v>
       </c>
       <c r="H26" s="17" t="s">
@@ -2372,7 +2542,7 @@
       <c r="I26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="19" t="s">
         <v>45</v>
       </c>
       <c r="K26" t="s">
@@ -2380,27 +2550,27 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="8">
         <f>SUM(G26:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="21">
         <f>SUM(H26:H26)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="21">
         <f>SUM(I26:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="22">
         <f>SUM(J26:J26)</f>
         <v>0</v>
       </c>
@@ -2491,10 +2661,10 @@
       <c r="E31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="56" t="s">
         <v>55</v>
       </c>
       <c r="H31" s="17" t="s">
@@ -2503,7 +2673,7 @@
       <c r="I31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="19" t="s">
         <v>58</v>
       </c>
       <c r="K31" t="s">
@@ -2511,27 +2681,27 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="8">
         <f>SUM(G31:G31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="21">
         <f>SUM(H31:H31)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="21">
         <f>SUM(I31:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="22">
         <f>SUM(J31:J31)</f>
         <v>0</v>
       </c>
@@ -2622,10 +2792,10 @@
       <c r="E36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="56" t="s">
         <v>67</v>
       </c>
       <c r="H36" s="17" t="s">
@@ -2634,7 +2804,7 @@
       <c r="I36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="19" t="s">
         <v>70</v>
       </c>
       <c r="K36" t="s">
@@ -2642,27 +2812,27 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="8">
         <f>SUM(G36:G36)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="21">
         <f>SUM(H36:H36)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="21">
         <f>SUM(I36:I36)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="22">
         <f>SUM(J36:J36)</f>
         <v>0</v>
       </c>
@@ -2753,10 +2923,10 @@
       <c r="E41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="56" t="s">
         <v>80</v>
       </c>
       <c r="H41" s="17" t="s">
@@ -2765,7 +2935,7 @@
       <c r="I41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="J41" s="19" t="s">
         <v>83</v>
       </c>
       <c r="K41" t="s">
@@ -2773,27 +2943,27 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="8">
         <f>SUM(G41:G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="45">
+      <c r="H42" s="24">
         <f>SUM(H41:H41)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="45">
+      <c r="I42" s="24">
         <f>SUM(I41:I41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="25">
         <f>SUM(J41:J41)</f>
         <v>0</v>
       </c>
@@ -2884,10 +3054,10 @@
       <c r="E46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="56" t="s">
         <v>92</v>
       </c>
       <c r="H46" s="17" t="s">
@@ -2896,7 +3066,7 @@
       <c r="I46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J46" s="35" t="s">
+      <c r="J46" s="19" t="s">
         <v>95</v>
       </c>
       <c r="K46" t="s">
@@ -2904,27 +3074,27 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8">
         <f>SUM(G46:G46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="24">
         <f>SUM(H46:H46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="24">
         <f>SUM(I46:I46)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="25">
         <f>SUM(J46:J46)</f>
         <v>0</v>
       </c>
@@ -3015,10 +3185,10 @@
       <c r="E51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="56" t="s">
         <v>104</v>
       </c>
       <c r="H51" s="17" t="s">
@@ -3027,7 +3197,7 @@
       <c r="I51" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="35" t="s">
+      <c r="J51" s="19" t="s">
         <v>107</v>
       </c>
       <c r="K51" t="s">
@@ -3035,27 +3205,27 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="8">
         <f>SUM(G51:G51)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="45">
+      <c r="H52" s="24">
         <f>SUM(H51:H51)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="45">
+      <c r="I52" s="24">
         <f>SUM(I51:I51)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="46">
+      <c r="J52" s="25">
         <f>SUM(J51:J51)</f>
         <v>0</v>
       </c>
@@ -3146,10 +3316,10 @@
       <c r="E56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="34" t="s">
+      <c r="F56" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="56" t="s">
         <v>116</v>
       </c>
       <c r="H56" s="17" t="s">
@@ -3158,7 +3328,7 @@
       <c r="I56" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J56" s="35" t="s">
+      <c r="J56" s="19" t="s">
         <v>119</v>
       </c>
       <c r="K56" t="s">
@@ -3166,27 +3336,27 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="8">
         <f>SUM(G56:G56)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="45">
+      <c r="H57" s="24">
         <f>SUM(H56:H56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="24">
         <f>SUM(I56:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="46">
+      <c r="J57" s="25">
         <f>SUM(J56:J56)</f>
         <v>0</v>
       </c>
@@ -3277,10 +3447,10 @@
       <c r="E61" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="56" t="s">
         <v>128</v>
       </c>
       <c r="H61" s="17" t="s">
@@ -3289,7 +3459,7 @@
       <c r="I61" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J61" s="35" t="s">
+      <c r="J61" s="19" t="s">
         <v>131</v>
       </c>
       <c r="K61" t="s">
@@ -3297,27 +3467,27 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
       <c r="G62" s="8">
         <f>SUM(G61:G61)</f>
         <v>0</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="24">
         <f>SUM(H61:H61)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I62" s="24">
         <f>SUM(I61:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="46">
+      <c r="J62" s="25">
         <f>SUM(J61:J61)</f>
         <v>0</v>
       </c>
@@ -3408,10 +3578,10 @@
       <c r="E66" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F66" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="56" t="s">
         <v>140</v>
       </c>
       <c r="H66" s="17" t="s">
@@ -3420,7 +3590,7 @@
       <c r="I66" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J66" s="35" t="s">
+      <c r="J66" s="19" t="s">
         <v>143</v>
       </c>
       <c r="K66" t="s">
@@ -3428,27 +3598,27 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
       <c r="G67" s="8">
         <f>SUM(G66:G66)</f>
         <v>0</v>
       </c>
-      <c r="H67" s="45">
+      <c r="H67" s="24">
         <f>SUM(H66:H66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="45">
+      <c r="I67" s="24">
         <f>SUM(I66:I66)</f>
         <v>0</v>
       </c>
-      <c r="J67" s="46">
+      <c r="J67" s="25">
         <f>SUM(J66:J66)</f>
         <v>0</v>
       </c>
@@ -3539,10 +3709,10 @@
       <c r="E71" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="56" t="s">
         <v>152</v>
       </c>
       <c r="H71" s="17" t="s">
@@ -3551,7 +3721,7 @@
       <c r="I71" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J71" s="35" t="s">
+      <c r="J71" s="19" t="s">
         <v>155</v>
       </c>
       <c r="K71" t="s">
@@ -3559,27 +3729,27 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="8">
         <f>SUM(G71:G71)</f>
         <v>0</v>
       </c>
-      <c r="H72" s="45">
+      <c r="H72" s="24">
         <f>SUM(H71:H71)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="45">
+      <c r="I72" s="24">
         <f>SUM(I71:I71)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="46">
+      <c r="J72" s="25">
         <f>SUM(J71:J71)</f>
         <v>0</v>
       </c>
@@ -3602,12 +3772,12 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
@@ -3616,7 +3786,7 @@
       <c r="I74" s="14"/>
       <c r="J74" s="16"/>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -3651,7 +3821,7 @@
         <v>5</v>
       </c>
       <c r="K75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3659,63 +3829,63 @@
         <v>1</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F76" s="34" t="s">
+      <c r="G76" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="H76" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="I76" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="J76" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="35" t="s">
-        <v>196</v>
-      </c>
       <c r="K76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
       <c r="G77" s="8">
         <f>SUM(G76:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="43">
+      <c r="H77" s="21">
         <f>SUM(H76:H76)</f>
         <v>0</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="21">
         <f>SUM(I76:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="44">
+      <c r="J77" s="22">
         <f>SUM(J76:J76)</f>
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -3728,17 +3898,17 @@
       <c r="I78" s="11"/>
       <c r="J78" s="9"/>
       <c r="K78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
@@ -3747,7 +3917,7 @@
       <c r="I79" s="14"/>
       <c r="J79" s="16"/>
       <c r="K79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -3782,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="K80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3790,63 +3960,63 @@
         <v>1</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F81" s="34" t="s">
+      <c r="G81" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="H81" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="I81" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="J81" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="J81" s="35" t="s">
-        <v>208</v>
-      </c>
       <c r="K81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
       <c r="G82" s="8">
         <f>SUM(G81:G81)</f>
         <v>0</v>
       </c>
-      <c r="H82" s="43">
+      <c r="H82" s="21">
         <f>SUM(H81:H81)</f>
         <v>0</v>
       </c>
-      <c r="I82" s="43">
+      <c r="I82" s="21">
         <f>SUM(I81:I81)</f>
         <v>0</v>
       </c>
-      <c r="J82" s="44">
+      <c r="J82" s="22">
         <f>SUM(J81:J81)</f>
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -3859,17 +4029,17 @@
       <c r="I83" s="11"/>
       <c r="J83" s="9"/>
       <c r="K83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -3878,7 +4048,7 @@
       <c r="I84" s="14"/>
       <c r="J84" s="16"/>
       <c r="K84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -3913,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="K85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3921,63 +4091,63 @@
         <v>1</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F86" s="34" t="s">
+      <c r="G86" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="H86" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="I86" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="I86" s="17" t="s">
+      <c r="J86" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="J86" s="35" t="s">
-        <v>220</v>
-      </c>
       <c r="K86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
       <c r="G87" s="8">
         <f>SUM(G86:G86)</f>
         <v>0</v>
       </c>
-      <c r="H87" s="43">
+      <c r="H87" s="21">
         <f>SUM(H86:H86)</f>
         <v>0</v>
       </c>
-      <c r="I87" s="43">
+      <c r="I87" s="21">
         <f>SUM(I86:I86)</f>
         <v>0</v>
       </c>
-      <c r="J87" s="44">
+      <c r="J87" s="22">
         <f>SUM(J86:J86)</f>
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3990,17 +4160,17 @@
       <c r="I88" s="11"/>
       <c r="J88" s="9"/>
       <c r="K88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
@@ -4009,7 +4179,7 @@
       <c r="I89" s="14"/>
       <c r="J89" s="16"/>
       <c r="K89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -4044,7 +4214,7 @@
         <v>5</v>
       </c>
       <c r="K90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -4052,63 +4222,63 @@
         <v>1</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="G91" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="H91" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H91" s="17" t="s">
+      <c r="I91" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="J91" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="J91" s="35" t="s">
-        <v>232</v>
-      </c>
       <c r="K91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
       <c r="G92" s="8">
         <f>SUM(G91:G91)</f>
         <v>0</v>
       </c>
-      <c r="H92" s="45">
+      <c r="H92" s="24">
         <f>SUM(H91:H91)</f>
         <v>0</v>
       </c>
-      <c r="I92" s="45">
+      <c r="I92" s="24">
         <f>SUM(I91:I91)</f>
         <v>0</v>
       </c>
-      <c r="J92" s="46">
+      <c r="J92" s="25">
         <f>SUM(J91:J91)</f>
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4121,17 +4291,17 @@
       <c r="I93" s="11"/>
       <c r="J93" s="9"/>
       <c r="K93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
@@ -4140,7 +4310,7 @@
       <c r="I94" s="14"/>
       <c r="J94" s="16"/>
       <c r="K94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4175,7 +4345,7 @@
         <v>5</v>
       </c>
       <c r="K95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -4183,63 +4353,63 @@
         <v>1</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F96" s="34" t="s">
+      <c r="G96" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="H96" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="I96" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="J96" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="J96" s="35" t="s">
-        <v>244</v>
-      </c>
       <c r="K96" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
       <c r="G97" s="8">
         <f>SUM(G96:G96)</f>
         <v>0</v>
       </c>
-      <c r="H97" s="45">
+      <c r="H97" s="24">
         <f>SUM(H96:H96)</f>
         <v>0</v>
       </c>
-      <c r="I97" s="45">
+      <c r="I97" s="24">
         <f>SUM(I96:I96)</f>
         <v>0</v>
       </c>
-      <c r="J97" s="46">
+      <c r="J97" s="25">
         <f>SUM(J96:J96)</f>
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4252,17 +4422,17 @@
       <c r="I98" s="11"/>
       <c r="J98" s="9"/>
       <c r="K98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
@@ -4271,7 +4441,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="16"/>
       <c r="K99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4306,7 +4476,7 @@
         <v>5</v>
       </c>
       <c r="K100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -4314,63 +4484,63 @@
         <v>1</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="F101" s="34" t="s">
+      <c r="G101" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="G101" s="18" t="s">
+      <c r="H101" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="H101" s="17" t="s">
+      <c r="I101" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="I101" s="17" t="s">
+      <c r="J101" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="J101" s="35" t="s">
-        <v>256</v>
-      </c>
       <c r="K101" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
       <c r="G102" s="8">
         <f>SUM(G101:G101)</f>
         <v>0</v>
       </c>
-      <c r="H102" s="45">
+      <c r="H102" s="24">
         <f>SUM(H101:H101)</f>
         <v>0</v>
       </c>
-      <c r="I102" s="45">
+      <c r="I102" s="24">
         <f>SUM(I101:I101)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="46">
+      <c r="J102" s="25">
         <f>SUM(J101:J101)</f>
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -4383,17 +4553,17 @@
       <c r="I103" s="11"/>
       <c r="J103" s="9"/>
       <c r="K103" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
@@ -4402,7 +4572,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="16"/>
       <c r="K104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -4437,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="K105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -4445,63 +4615,63 @@
         <v>1</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F106" s="34" t="s">
+      <c r="G106" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="G106" s="18" t="s">
+      <c r="H106" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="I106" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="I106" s="17" t="s">
+      <c r="J106" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="J106" s="35" t="s">
-        <v>268</v>
-      </c>
       <c r="K106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
       <c r="G107" s="8">
         <f>SUM(G106:G106)</f>
         <v>0</v>
       </c>
-      <c r="H107" s="45">
+      <c r="H107" s="24">
         <f>SUM(H106:H106)</f>
         <v>0</v>
       </c>
-      <c r="I107" s="45">
+      <c r="I107" s="24">
         <f>SUM(I106:I106)</f>
         <v>0</v>
       </c>
-      <c r="J107" s="46">
+      <c r="J107" s="25">
         <f>SUM(J106:J106)</f>
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -4514,17 +4684,17 @@
       <c r="I108" s="11"/>
       <c r="J108" s="9"/>
       <c r="K108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
@@ -4533,7 +4703,7 @@
       <c r="I109" s="14"/>
       <c r="J109" s="16"/>
       <c r="K109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -4568,7 +4738,7 @@
         <v>5</v>
       </c>
       <c r="K110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -4576,63 +4746,63 @@
         <v>1</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F111" s="34" t="s">
+      <c r="G111" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="G111" s="18" t="s">
+      <c r="H111" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H111" s="17" t="s">
+      <c r="I111" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="I111" s="17" t="s">
+      <c r="J111" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="J111" s="35" t="s">
-        <v>280</v>
-      </c>
       <c r="K111" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="21"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
       <c r="G112" s="8">
         <f>SUM(G111:G111)</f>
         <v>0</v>
       </c>
-      <c r="H112" s="45">
+      <c r="H112" s="24">
         <f>SUM(H111:H111)</f>
         <v>0</v>
       </c>
-      <c r="I112" s="45">
+      <c r="I112" s="24">
         <f>SUM(I111:I111)</f>
         <v>0</v>
       </c>
-      <c r="J112" s="46">
+      <c r="J112" s="25">
         <f>SUM(J111:J111)</f>
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -4645,17 +4815,17 @@
       <c r="I113" s="11"/>
       <c r="J113" s="9"/>
       <c r="K113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
       <c r="D114" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
@@ -4664,7 +4834,7 @@
       <c r="I114" s="14"/>
       <c r="J114" s="16"/>
       <c r="K114" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -4699,7 +4869,7 @@
         <v>5</v>
       </c>
       <c r="K115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -4707,63 +4877,63 @@
         <v>1</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="F116" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="G116" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="H116" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H116" s="17" t="s">
+      <c r="I116" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="I116" s="17" t="s">
+      <c r="J116" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="J116" s="35" t="s">
-        <v>292</v>
-      </c>
       <c r="K116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
       <c r="G117" s="8">
         <f>SUM(G116:G116)</f>
         <v>0</v>
       </c>
-      <c r="H117" s="45">
+      <c r="H117" s="24">
         <f>SUM(H116:H116)</f>
         <v>0</v>
       </c>
-      <c r="I117" s="45">
+      <c r="I117" s="24">
         <f>SUM(I116:I116)</f>
         <v>0</v>
       </c>
-      <c r="J117" s="46">
+      <c r="J117" s="25">
         <f>SUM(J116:J116)</f>
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -4776,17 +4946,17 @@
       <c r="I118" s="11"/>
       <c r="J118" s="9"/>
       <c r="K118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
       <c r="D119" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
@@ -4795,7 +4965,7 @@
       <c r="I119" s="14"/>
       <c r="J119" s="16"/>
       <c r="K119" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -4830,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="K120" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -4838,63 +5008,63 @@
         <v>1</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="F121" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="F121" s="34" t="s">
+      <c r="G121" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="H121" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="I121" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="I121" s="17" t="s">
+      <c r="J121" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="J121" s="35" t="s">
-        <v>304</v>
-      </c>
       <c r="K121" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="21"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
       <c r="G122" s="8">
         <f>SUM(G121:G121)</f>
         <v>0</v>
       </c>
-      <c r="H122" s="45">
+      <c r="H122" s="24">
         <f>SUM(H121:H121)</f>
         <v>0</v>
       </c>
-      <c r="I122" s="45">
+      <c r="I122" s="24">
         <f>SUM(I121:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="46">
+      <c r="J122" s="25">
         <f>SUM(J121:J121)</f>
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -4907,17 +5077,17 @@
       <c r="I123" s="11"/>
       <c r="J123" s="9"/>
       <c r="K123" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
@@ -4926,7 +5096,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="16"/>
       <c r="K124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -4961,7 +5131,7 @@
         <v>5</v>
       </c>
       <c r="K125" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -4969,63 +5139,63 @@
         <v>1</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="G126" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="G126" s="18" t="s">
+      <c r="H126" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="H126" s="17" t="s">
+      <c r="I126" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="I126" s="17" t="s">
+      <c r="J126" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="J126" s="35" t="s">
-        <v>316</v>
-      </c>
       <c r="K126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
       <c r="G127" s="8">
         <f>SUM(G126:G126)</f>
         <v>0</v>
       </c>
-      <c r="H127" s="43">
+      <c r="H127" s="21">
         <f>SUM(H126:H126)</f>
         <v>0</v>
       </c>
-      <c r="I127" s="43">
+      <c r="I127" s="21">
         <f>SUM(I126:I126)</f>
         <v>0</v>
       </c>
-      <c r="J127" s="44">
+      <c r="J127" s="22">
         <f>SUM(J126:J126)</f>
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -5038,17 +5208,17 @@
       <c r="I128" s="11"/>
       <c r="J128" s="9"/>
       <c r="K128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
@@ -5057,7 +5227,7 @@
       <c r="I129" s="14"/>
       <c r="J129" s="16"/>
       <c r="K129" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -5092,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="K130" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -5100,63 +5270,63 @@
         <v>1</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="D131" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="F131" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="F131" s="34" t="s">
+      <c r="G131" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="G131" s="18" t="s">
+      <c r="H131" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="H131" s="17" t="s">
+      <c r="I131" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="I131" s="17" t="s">
+      <c r="J131" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="J131" s="35" t="s">
-        <v>328</v>
-      </c>
       <c r="K131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="20" t="s">
+      <c r="A132" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="21"/>
-      <c r="F132" s="21"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
       <c r="G132" s="8">
         <f>SUM(G131:G131)</f>
         <v>0</v>
       </c>
-      <c r="H132" s="43">
+      <c r="H132" s="21">
         <f>SUM(H131:H131)</f>
         <v>0</v>
       </c>
-      <c r="I132" s="43">
+      <c r="I132" s="21">
         <f>SUM(I131:I131)</f>
         <v>0</v>
       </c>
-      <c r="J132" s="44">
+      <c r="J132" s="22">
         <f>SUM(J131:J131)</f>
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -5169,17 +5339,17 @@
       <c r="I133" s="11"/>
       <c r="J133" s="9"/>
       <c r="K133" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
       <c r="D134" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
@@ -5188,7 +5358,7 @@
       <c r="I134" s="14"/>
       <c r="J134" s="16"/>
       <c r="K134" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -5223,7 +5393,7 @@
         <v>5</v>
       </c>
       <c r="K135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -5231,63 +5401,63 @@
         <v>1</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="F136" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="F136" s="34" t="s">
+      <c r="G136" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="G136" s="18" t="s">
+      <c r="H136" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="H136" s="17" t="s">
+      <c r="I136" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="I136" s="17" t="s">
+      <c r="J136" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="J136" s="35" t="s">
-        <v>340</v>
-      </c>
       <c r="K136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="20" t="s">
+      <c r="A137" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="37"/>
       <c r="G137" s="8">
         <f>SUM(G136:G136)</f>
         <v>0</v>
       </c>
-      <c r="H137" s="43">
+      <c r="H137" s="21">
         <f>SUM(H136:H136)</f>
         <v>0</v>
       </c>
-      <c r="I137" s="43">
+      <c r="I137" s="21">
         <f>SUM(I136:I136)</f>
         <v>0</v>
       </c>
-      <c r="J137" s="44">
+      <c r="J137" s="22">
         <f>SUM(J136:J136)</f>
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -5300,17 +5470,17 @@
       <c r="I138" s="11"/>
       <c r="J138" s="9"/>
       <c r="K138" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
       <c r="D139" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
@@ -5319,7 +5489,7 @@
       <c r="I139" s="14"/>
       <c r="J139" s="16"/>
       <c r="K139" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -5354,7 +5524,7 @@
         <v>5</v>
       </c>
       <c r="K140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -5362,63 +5532,63 @@
         <v>1</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="D141" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="F141" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="F141" s="34" t="s">
+      <c r="G141" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="G141" s="18" t="s">
+      <c r="H141" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="H141" s="17" t="s">
+      <c r="I141" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="I141" s="17" t="s">
+      <c r="J141" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="J141" s="35" t="s">
-        <v>352</v>
-      </c>
       <c r="K141" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="20" t="s">
+      <c r="A142" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="21"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="21"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
       <c r="G142" s="8">
         <f>SUM(G141:G141)</f>
         <v>0</v>
       </c>
-      <c r="H142" s="45">
+      <c r="H142" s="24">
         <f>SUM(H141:H141)</f>
         <v>0</v>
       </c>
-      <c r="I142" s="45">
+      <c r="I142" s="24">
         <f>SUM(I141:I141)</f>
         <v>0</v>
       </c>
-      <c r="J142" s="46">
+      <c r="J142" s="25">
         <f>SUM(J141:J141)</f>
         <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -5431,7 +5601,7 @@
       <c r="I143" s="11"/>
       <c r="J143" s="9"/>
       <c r="K143" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -5456,10 +5626,10 @@
       <c r="A145" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C145" s="26"/>
+      <c r="C145" s="30"/>
       <c r="D145" s="3" t="s">
         <v>11</v>
       </c>
@@ -5477,20 +5647,20 @@
       <c r="J145" s="9"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="49">
+      <c r="A146" s="27">
         <v>1</v>
       </c>
-      <c r="B146" s="50" t="s">
+      <c r="B146" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C146" s="50"/>
-      <c r="D146" s="51" t="s">
+      <c r="C146" s="31"/>
+      <c r="D146" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E146" s="51" t="s">
+      <c r="E146" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F146" s="52" t="s">
+      <c r="F146" s="29" t="s">
         <v>177</v>
       </c>
       <c r="G146" t="s">
@@ -5514,17 +5684,17 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
       <c r="D148" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="16"/>
       <c r="G148" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
@@ -5534,10 +5704,10 @@
       <c r="A149" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C149" s="26"/>
+      <c r="C149" s="30"/>
       <c r="D149" s="3" t="s">
         <v>11</v>
       </c>
@@ -5548,31 +5718,31 @@
         <v>164</v>
       </c>
       <c r="G149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="9"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="49">
+      <c r="A150" s="27">
         <v>1</v>
       </c>
-      <c r="B150" s="50" t="s">
+      <c r="B150" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C150" s="31"/>
+      <c r="D150" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="C150" s="50"/>
-      <c r="D150" s="51" t="s">
+      <c r="E150" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="E150" s="51" t="s">
+      <c r="F150" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="F150" s="52" t="s">
-        <v>359</v>
-      </c>
       <c r="G150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
@@ -5584,7 +5754,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="11"/>
       <c r="G151" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
@@ -5592,17 +5762,17 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
       <c r="D152" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="16"/>
       <c r="G152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -5612,10 +5782,10 @@
       <c r="A153" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="26" t="s">
+      <c r="B153" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C153" s="26"/>
+      <c r="C153" s="30"/>
       <c r="D153" s="3" t="s">
         <v>11</v>
       </c>
@@ -5626,31 +5796,31 @@
         <v>164</v>
       </c>
       <c r="G153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
       <c r="J153" s="9"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="49">
+      <c r="A154" s="27">
         <v>1</v>
       </c>
-      <c r="B154" s="50" t="s">
+      <c r="B154" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C154" s="31"/>
+      <c r="D154" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="C154" s="50"/>
-      <c r="D154" s="51" t="s">
+      <c r="E154" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="E154" s="51" t="s">
+      <c r="F154" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="F154" s="52" t="s">
-        <v>366</v>
-      </c>
       <c r="G154" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
@@ -5662,7 +5832,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="11"/>
       <c r="G155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
@@ -5670,17 +5840,17 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
       <c r="D156" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="16"/>
       <c r="G156" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
@@ -5690,10 +5860,10 @@
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C157" s="26"/>
+      <c r="C157" s="30"/>
       <c r="D157" s="3" t="s">
         <v>11</v>
       </c>
@@ -5704,31 +5874,31 @@
         <v>164</v>
       </c>
       <c r="G157" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
       <c r="J157" s="9"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="49">
+      <c r="A158" s="27">
         <v>1</v>
       </c>
-      <c r="B158" s="50" t="s">
+      <c r="B158" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C158" s="31"/>
+      <c r="D158" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="C158" s="50"/>
-      <c r="D158" s="51" t="s">
+      <c r="E158" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="E158" s="51" t="s">
+      <c r="F158" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="F158" s="52" t="s">
-        <v>373</v>
-      </c>
       <c r="G158" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
@@ -5740,7 +5910,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="11"/>
       <c r="G159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
@@ -5748,17 +5918,17 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E160" s="14"/>
       <c r="F160" s="16"/>
       <c r="G160" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
@@ -5768,10 +5938,10 @@
       <c r="A161" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="26"/>
+      <c r="C161" s="30"/>
       <c r="D161" s="3" t="s">
         <v>11</v>
       </c>
@@ -5782,31 +5952,31 @@
         <v>164</v>
       </c>
       <c r="G161" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
       <c r="J161" s="9"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="49">
+      <c r="A162" s="27">
         <v>1</v>
       </c>
-      <c r="B162" s="50" t="s">
+      <c r="B162" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C162" s="31"/>
+      <c r="D162" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="C162" s="50"/>
-      <c r="D162" s="51" t="s">
+      <c r="E162" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="E162" s="51" t="s">
+      <c r="F162" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="F162" s="52" t="s">
-        <v>380</v>
-      </c>
       <c r="G162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I162" s="11"/>
       <c r="J162" s="9"/>
@@ -5817,125 +5987,832 @@
       <c r="E163" s="9"/>
       <c r="F163" s="11"/>
       <c r="G163" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I163" s="11"/>
       <c r="J163" s="9"/>
     </row>
     <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="9"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="16"/>
+      <c r="J165" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J166" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>1</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="G167" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="I167" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="J167" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="37"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="8">
+        <f>SUM(G167:G167)</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="21">
+        <f>SUM(H167:H167)</f>
+        <v>0</v>
+      </c>
+      <c r="I168" s="22">
+        <f>SUM(I167:I167)</f>
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="13" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="13" t="str">
+        <f>"-"</f>
+        <v>-</v>
+      </c>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="16"/>
+      <c r="J170" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J171" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B172" s="54"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="54"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="55"/>
+      <c r="J172" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="37"/>
+      <c r="C173" s="37"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="8">
+        <f>SUM(G172:G172)</f>
+        <v>0</v>
+      </c>
+      <c r="H173" s="21">
+        <f>SUM(H172:H172)</f>
+        <v>0</v>
+      </c>
+      <c r="I173" s="22">
+        <f>SUM(I172:I172)</f>
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J174" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="16"/>
+      <c r="J175" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J176" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
+        <v>1</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F177" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="G177" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="H177" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="I177" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="J177" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="37"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="37"/>
+      <c r="E178" s="37"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="8">
+        <f>SUM(G177:G177)</f>
+        <v>0</v>
+      </c>
+      <c r="H178" s="21">
+        <f>SUM(H177:H177)</f>
+        <v>0</v>
+      </c>
+      <c r="I178" s="22">
+        <f>SUM(I177:I177)</f>
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="10"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="9"/>
+      <c r="J179" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="16"/>
+      <c r="J180" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J181" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>1</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F182" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G182" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="I182" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="J182" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="37"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="37"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="8">
+        <f>SUM(G182:G182)</f>
+        <v>0</v>
+      </c>
+      <c r="H183" s="21">
+        <f>SUM(H182:H182)</f>
+        <v>0</v>
+      </c>
+      <c r="I183" s="22">
+        <f>SUM(I182:I182)</f>
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="10"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="9"/>
+      <c r="J184" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="16"/>
+      <c r="J185" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J186" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>1</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F187" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="G187" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="I187" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="J187" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="37"/>
+      <c r="C188" s="37"/>
+      <c r="D188" s="37"/>
+      <c r="E188" s="37"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="8">
+        <f>SUM(G187:G187)</f>
+        <v>0</v>
+      </c>
+      <c r="H188" s="21">
+        <f>SUM(H187:H187)</f>
+        <v>0</v>
+      </c>
+      <c r="I188" s="22">
+        <f>SUM(I187:I187)</f>
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="10"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="9"/>
+      <c r="J189" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="16"/>
+      <c r="J190" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J191" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>1</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F192" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="G192" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="H192" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="I192" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="J192" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="8">
+        <f>SUM(G192:G192)</f>
+        <v>0</v>
+      </c>
+      <c r="H193" s="24">
+        <f>SUM(H192:H192)</f>
+        <v>0</v>
+      </c>
+      <c r="I193" s="25">
+        <f>SUM(I192:I192)</f>
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="10"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="9"/>
+      <c r="J194" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B196" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C196" s="30"/>
+      <c r="D196" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
+        <v>1</v>
+      </c>
+      <c r="B197" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C197" s="38"/>
+      <c r="D197" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F197" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G197" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="34" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B165" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C165" s="26"/>
-      <c r="D165" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="5">
-        <v>1</v>
-      </c>
-      <c r="B166" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C166" s="37"/>
-      <c r="D166" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E166" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F166" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="G166" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="H166" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="I166" s="48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="48" t="s">
+      <c r="B198" s="35"/>
+      <c r="C198" s="35"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="35"/>
+      <c r="F198" s="35"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="20" t="s">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="36"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="40">
-        <f>SUM(F166:F166)</f>
-        <v>0</v>
-      </c>
-      <c r="G168" s="40">
-        <f>SUM(G166:G166)</f>
-        <v>0</v>
-      </c>
-      <c r="H168" s="41">
-        <f>SUM(H166:H166)</f>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="21">
+        <f>SUM(F197:F197)</f>
+        <v>0</v>
+      </c>
+      <c r="G199" s="21">
+        <f>SUM(G197:G197)</f>
+        <v>0</v>
+      </c>
+      <c r="H199" s="22">
+        <f>SUM(H197:H197)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A167:H167"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A87:F87"/>
+  <mergeCells count="64">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A72:F72"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
     <mergeCell ref="B145:C145"/>
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="A132:F132"/>
@@ -5945,34 +6822,30 @@
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="B154:C154"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A198:H198"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A172:I172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/resources/xlsx/export_billing_detail.xlsx
+++ b/resources/xlsx/export_billing_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mmj\project\PHP\MARGO-BARU\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E5262-6FE1-4C35-8304-D5A59D28E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B2D8E0-D41F-4AEB-9E43-DBEE0B8946E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16F53B30-EA35-46C9-9529-5DBEDB6DC1E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="470">
   <si>
     <t>Nama Sales</t>
   </si>
@@ -1353,6 +1353,99 @@
   </si>
   <si>
     <t>Belum Ada Retur</t>
+  </si>
+  <si>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>[invoices1.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices2.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices3.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices4.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices5.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices6.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices7.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices8.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices9.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices10.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices11.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.cover]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.cover]</t>
+  </si>
+  <si>
+    <t>[returs1.items.cover]</t>
+  </si>
+  <si>
+    <t>[returs2.items.cover]</t>
+  </si>
+  <si>
+    <t>[returs3.items.cover]</t>
+  </si>
+  <si>
+    <t>[returs4.items.cover]</t>
+  </si>
+  <si>
+    <t>[returs5.items.cover]</t>
   </si>
 </sst>
 </file>
@@ -1659,48 +1752,32 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,26 +1790,44 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2072,184 +2167,195 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K199"/>
+  <dimension ref="A2:L199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B172" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="10" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="11" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="49" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D6" s="7"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="50"/>
+      <c r="H8" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="I8" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" t="s">
+      <c r="F9" s="52"/>
+      <c r="G9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46">
-        <f>SUM(D9:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42">
+        <f>SUM(E9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="16"/>
-      <c r="K14" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="16"/>
+      <c r="L14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>156</v>
       </c>
@@ -2257,34 +2363,37 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -2292,47 +2401,47 @@
         <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="H16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="K16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="8">
-        <f>SUM(G16:G16)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="8">
         <f>SUM(H16:H16)</f>
         <v>0</v>
       </c>
@@ -2340,41 +2449,46 @@
         <f>SUM(I16:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <f>SUM(J16:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="22">
+        <f>SUM(K16:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="13" t="str">
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="16"/>
-      <c r="K19" t="s">
+      <c r="J19" s="14"/>
+      <c r="K19" s="16"/>
+      <c r="L19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
@@ -2382,64 +2496,65 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="8">
-        <f>SUM(G21:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="8">
         <f>SUM(H21:H21)</f>
         <v>0</v>
       </c>
@@ -2447,39 +2562,44 @@
         <f>SUM(I21:I21)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <f>SUM(J21:J21)</f>
         <v>0</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="22">
+        <f>SUM(K21:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="16"/>
-      <c r="K24" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="16"/>
+      <c r="L24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
@@ -2487,34 +2607,37 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -2522,47 +2645,47 @@
         <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="G26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="H26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="I26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="J26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="K26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="8">
-        <f>SUM(G26:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="8">
         <f>SUM(H26:H26)</f>
         <v>0</v>
       </c>
@@ -2570,47 +2693,52 @@
         <f>SUM(I26:I26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <f>SUM(J26:J26)</f>
         <v>0</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="22">
+        <f>SUM(K26:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-      <c r="K28" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="9"/>
+      <c r="L28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="16"/>
-      <c r="K29" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="16"/>
+      <c r="L29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
@@ -2618,34 +2746,37 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -2653,47 +2784,47 @@
         <v>50</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="G31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="H31" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="J31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="K31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="8">
-        <f>SUM(G31:G31)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="21">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="8">
         <f>SUM(H31:H31)</f>
         <v>0</v>
       </c>
@@ -2701,47 +2832,52 @@
         <f>SUM(I31:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <f>SUM(J31:J31)</f>
         <v>0</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="22">
+        <f>SUM(K31:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="9"/>
-      <c r="K33" t="s">
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="16"/>
-      <c r="K34" t="s">
+      <c r="J34" s="14"/>
+      <c r="K34" s="16"/>
+      <c r="L34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>156</v>
       </c>
@@ -2749,34 +2885,37 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>1</v>
       </c>
@@ -2784,47 +2923,47 @@
         <v>62</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="G36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="H36" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="I36" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="J36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="K36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="8">
-        <f>SUM(G36:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="8">
         <f>SUM(H36:H36)</f>
         <v>0</v>
       </c>
@@ -2832,47 +2971,52 @@
         <f>SUM(I36:I36)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <f>SUM(J36:J36)</f>
         <v>0</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="22">
+        <f>SUM(K36:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="11"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="9"/>
-      <c r="K38" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="9"/>
+      <c r="L38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="16"/>
-      <c r="K39" t="s">
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
+      <c r="L39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>156</v>
       </c>
@@ -2880,34 +3024,37 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -2915,47 +3062,47 @@
         <v>75</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="G41" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="H41" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="I41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="J41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="K41" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="8">
-        <f>SUM(G41:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="24">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="8">
         <f>SUM(H41:H41)</f>
         <v>0</v>
       </c>
@@ -2963,47 +3110,52 @@
         <f>SUM(I41:I41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="24">
         <f>SUM(J41:J41)</f>
         <v>0</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="25">
+        <f>SUM(K41:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
       <c r="I43" s="11"/>
-      <c r="J43" s="9"/>
-      <c r="K43" t="s">
+      <c r="J43" s="11"/>
+      <c r="K43" s="9"/>
+      <c r="L43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14"/>
+      <c r="E44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="J44" s="16"/>
-      <c r="K44" t="s">
+      <c r="J44" s="14"/>
+      <c r="K44" s="16"/>
+      <c r="L44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>156</v>
       </c>
@@ -3011,34 +3163,37 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>1</v>
       </c>
@@ -3046,47 +3201,47 @@
         <v>87</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="H46" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="I46" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="J46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="K46" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="8">
-        <f>SUM(G46:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="24">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="8">
         <f>SUM(H46:H46)</f>
         <v>0</v>
       </c>
@@ -3094,47 +3249,52 @@
         <f>SUM(I46:I46)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="24">
         <f>SUM(J46:J46)</f>
         <v>0</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="25">
+        <f>SUM(K46:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="9"/>
-      <c r="K48" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="9"/>
+      <c r="L48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14"/>
+      <c r="E49" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="16"/>
-      <c r="K49" t="s">
+      <c r="J49" s="14"/>
+      <c r="K49" s="16"/>
+      <c r="L49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>156</v>
       </c>
@@ -3142,34 +3302,37 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -3177,47 +3340,47 @@
         <v>99</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="G51" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="56" t="s">
+      <c r="H51" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="I51" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="J51" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="K51" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="8">
-        <f>SUM(G51:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="24">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="8">
         <f>SUM(H51:H51)</f>
         <v>0</v>
       </c>
@@ -3225,47 +3388,52 @@
         <f>SUM(I51:I51)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="24">
         <f>SUM(J51:J51)</f>
         <v>0</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="25">
+        <f>SUM(K51:K51)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="11"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
       <c r="I53" s="11"/>
-      <c r="J53" s="9"/>
-      <c r="K53" t="s">
+      <c r="J53" s="11"/>
+      <c r="K53" s="9"/>
+      <c r="L53" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="16"/>
-      <c r="K54" t="s">
+      <c r="J54" s="14"/>
+      <c r="K54" s="16"/>
+      <c r="L54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>156</v>
       </c>
@@ -3273,34 +3441,37 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>1</v>
       </c>
@@ -3308,47 +3479,47 @@
         <v>111</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="G56" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="56" t="s">
+      <c r="H56" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="I56" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="J56" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="K56" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="8">
-        <f>SUM(G56:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="24">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="8">
         <f>SUM(H56:H56)</f>
         <v>0</v>
       </c>
@@ -3356,47 +3527,52 @@
         <f>SUM(I56:I56)</f>
         <v>0</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="24">
         <f>SUM(J56:J56)</f>
         <v>0</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="25">
+        <f>SUM(K56:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="11"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="9"/>
-      <c r="K58" t="s">
+      <c r="J58" s="11"/>
+      <c r="K58" s="9"/>
+      <c r="L58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="16"/>
-      <c r="K59" t="s">
+      <c r="J59" s="14"/>
+      <c r="K59" s="16"/>
+      <c r="L59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>156</v>
       </c>
@@ -3404,34 +3580,37 @@
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -3439,47 +3618,47 @@
         <v>123</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="56" t="s">
+      <c r="H61" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="17" t="s">
+      <c r="I61" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="J61" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="K61" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="8">
-        <f>SUM(G61:G61)</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="24">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="8">
         <f>SUM(H61:H61)</f>
         <v>0</v>
       </c>
@@ -3487,47 +3666,52 @@
         <f>SUM(I61:I61)</f>
         <v>0</v>
       </c>
-      <c r="J62" s="25">
+      <c r="J62" s="24">
         <f>SUM(J61:J61)</f>
         <v>0</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="25">
+        <f>SUM(K61:K61)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="11"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="9"/>
-      <c r="K63" t="s">
+      <c r="J63" s="11"/>
+      <c r="K63" s="9"/>
+      <c r="L63" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="16"/>
-      <c r="K64" t="s">
+      <c r="J64" s="14"/>
+      <c r="K64" s="16"/>
+      <c r="L64" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>156</v>
       </c>
@@ -3535,34 +3719,37 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="K65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -3570,47 +3757,47 @@
         <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="G66" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="56" t="s">
+      <c r="H66" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H66" s="17" t="s">
+      <c r="I66" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="J66" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="K66" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="8">
-        <f>SUM(G66:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="24">
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="8">
         <f>SUM(H66:H66)</f>
         <v>0</v>
       </c>
@@ -3618,47 +3805,52 @@
         <f>SUM(I66:I66)</f>
         <v>0</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J67" s="24">
         <f>SUM(J66:J66)</f>
         <v>0</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="25">
+        <f>SUM(K66:K66)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="11"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="12"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="9"/>
-      <c r="K68" t="s">
+      <c r="J68" s="11"/>
+      <c r="K68" s="9"/>
+      <c r="L68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="14"/>
+      <c r="E69" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
-      <c r="J69" s="16"/>
-      <c r="K69" t="s">
+      <c r="J69" s="14"/>
+      <c r="K69" s="16"/>
+      <c r="L69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
@@ -3666,34 +3858,37 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="K70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -3701,47 +3896,47 @@
         <v>147</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="G71" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G71" s="56" t="s">
+      <c r="H71" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="H71" s="17" t="s">
+      <c r="I71" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="17" t="s">
+      <c r="J71" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="K71" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="32" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="8">
-        <f>SUM(G71:G71)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="24">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="8">
         <f>SUM(H71:H71)</f>
         <v>0</v>
       </c>
@@ -3749,47 +3944,52 @@
         <f>SUM(I71:I71)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="25">
+      <c r="J72" s="24">
         <f>SUM(J71:J71)</f>
         <v>0</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="25">
+        <f>SUM(K71:K71)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="11"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="9"/>
-      <c r="K73" t="s">
+      <c r="J73" s="11"/>
+      <c r="K73" s="9"/>
+      <c r="L73" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="14"/>
+      <c r="E74" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
-      <c r="J74" s="16"/>
-      <c r="K74" t="s">
+      <c r="J74" s="14"/>
+      <c r="K74" s="16"/>
+      <c r="L74" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
@@ -3797,34 +3997,37 @@
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="K75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>1</v>
       </c>
@@ -3832,47 +4035,47 @@
         <v>187</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="G76" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="G76" s="56" t="s">
+      <c r="H76" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="I76" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="J76" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="K76" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="32" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="8">
-        <f>SUM(G76:G76)</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="21">
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="8">
         <f>SUM(H76:H76)</f>
         <v>0</v>
       </c>
@@ -3880,47 +4083,52 @@
         <f>SUM(I76:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="22">
+      <c r="J77" s="21">
         <f>SUM(J76:J76)</f>
         <v>0</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="22">
+        <f>SUM(K76:K76)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="11"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="9"/>
-      <c r="K78" t="s">
+      <c r="J78" s="11"/>
+      <c r="K78" s="9"/>
+      <c r="L78" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="14"/>
+      <c r="E79" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
-      <c r="J79" s="16"/>
-      <c r="K79" t="s">
+      <c r="J79" s="14"/>
+      <c r="K79" s="16"/>
+      <c r="L79" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
@@ -3928,34 +4136,37 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>1</v>
       </c>
@@ -3963,47 +4174,47 @@
         <v>199</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="G81" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="G81" s="56" t="s">
+      <c r="H81" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="I81" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="J81" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J81" s="19" t="s">
+      <c r="K81" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="8">
-        <f>SUM(G81:G81)</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="21">
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="8">
         <f>SUM(H81:H81)</f>
         <v>0</v>
       </c>
@@ -4011,47 +4222,52 @@
         <f>SUM(I81:I81)</f>
         <v>0</v>
       </c>
-      <c r="J82" s="22">
+      <c r="J82" s="21">
         <f>SUM(J81:J81)</f>
         <v>0</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="22">
+        <f>SUM(K81:K81)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="11"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="9"/>
-      <c r="K83" t="s">
+      <c r="J83" s="11"/>
+      <c r="K83" s="9"/>
+      <c r="L83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>208</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="14"/>
+      <c r="E84" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
-      <c r="J84" s="16"/>
-      <c r="K84" t="s">
+      <c r="J84" s="14"/>
+      <c r="K84" s="16"/>
+      <c r="L84" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>156</v>
       </c>
@@ -4059,34 +4275,37 @@
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="K85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>1</v>
       </c>
@@ -4094,47 +4313,47 @@
         <v>211</v>
       </c>
       <c r="C86" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="G86" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G86" s="56" t="s">
+      <c r="H86" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="I86" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="I86" s="17" t="s">
+      <c r="J86" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="J86" s="19" t="s">
+      <c r="K86" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="32" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="8">
-        <f>SUM(G86:G86)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="21">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="8">
         <f>SUM(H86:H86)</f>
         <v>0</v>
       </c>
@@ -4142,47 +4361,52 @@
         <f>SUM(I86:I86)</f>
         <v>0</v>
       </c>
-      <c r="J87" s="22">
+      <c r="J87" s="21">
         <f>SUM(J86:J86)</f>
         <v>0</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="22">
+        <f>SUM(K86:K86)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="11"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="12"/>
       <c r="I88" s="11"/>
-      <c r="J88" s="9"/>
-      <c r="K88" t="s">
+      <c r="J88" s="11"/>
+      <c r="K88" s="9"/>
+      <c r="L88" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>220</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="14"/>
+      <c r="E89" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
-      <c r="J89" s="16"/>
-      <c r="K89" t="s">
+      <c r="J89" s="14"/>
+      <c r="K89" s="16"/>
+      <c r="L89" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
@@ -4190,34 +4414,37 @@
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>1</v>
       </c>
@@ -4225,47 +4452,47 @@
         <v>223</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="G91" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G91" s="56" t="s">
+      <c r="H91" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="H91" s="17" t="s">
+      <c r="I91" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="J91" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="J91" s="19" t="s">
+      <c r="K91" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="32" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="8">
-        <f>SUM(G91:G91)</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="24">
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="8">
         <f>SUM(H91:H91)</f>
         <v>0</v>
       </c>
@@ -4273,47 +4500,52 @@
         <f>SUM(I91:I91)</f>
         <v>0</v>
       </c>
-      <c r="J92" s="25">
+      <c r="J92" s="24">
         <f>SUM(J91:J91)</f>
         <v>0</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="25">
+        <f>SUM(K91:K91)</f>
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="11"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
       <c r="I93" s="11"/>
-      <c r="J93" s="9"/>
-      <c r="K93" t="s">
+      <c r="J93" s="11"/>
+      <c r="K93" s="9"/>
+      <c r="L93" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="14"/>
+      <c r="E94" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
-      <c r="J94" s="16"/>
-      <c r="K94" t="s">
+      <c r="J94" s="14"/>
+      <c r="K94" s="16"/>
+      <c r="L94" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>156</v>
       </c>
@@ -4321,34 +4553,37 @@
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="K95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>1</v>
       </c>
@@ -4356,47 +4591,47 @@
         <v>235</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="G96" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="G96" s="56" t="s">
+      <c r="H96" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="I96" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="J96" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="J96" s="19" t="s">
+      <c r="K96" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="32" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="8">
-        <f>SUM(G96:G96)</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="24">
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="8">
         <f>SUM(H96:H96)</f>
         <v>0</v>
       </c>
@@ -4404,47 +4639,52 @@
         <f>SUM(I96:I96)</f>
         <v>0</v>
       </c>
-      <c r="J97" s="25">
+      <c r="J97" s="24">
         <f>SUM(J96:J96)</f>
         <v>0</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="25">
+        <f>SUM(K96:K96)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="11"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="11"/>
-      <c r="J98" s="9"/>
-      <c r="K98" t="s">
+      <c r="J98" s="11"/>
+      <c r="K98" s="9"/>
+      <c r="L98" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="14"/>
+      <c r="E99" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
-      <c r="J99" s="16"/>
-      <c r="K99" t="s">
+      <c r="J99" s="14"/>
+      <c r="K99" s="16"/>
+      <c r="L99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>156</v>
       </c>
@@ -4452,34 +4692,37 @@
         <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="K100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -4487,47 +4730,47 @@
         <v>247</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="G101" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="G101" s="56" t="s">
+      <c r="H101" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="H101" s="17" t="s">
+      <c r="I101" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="I101" s="17" t="s">
+      <c r="J101" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="J101" s="19" t="s">
+      <c r="K101" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="32" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="8">
-        <f>SUM(G101:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="24">
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="8">
         <f>SUM(H101:H101)</f>
         <v>0</v>
       </c>
@@ -4535,47 +4778,52 @@
         <f>SUM(I101:I101)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="25">
+      <c r="J102" s="24">
         <f>SUM(J101:J101)</f>
         <v>0</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="25">
+        <f>SUM(K101:K101)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="11"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
       <c r="I103" s="11"/>
-      <c r="J103" s="9"/>
-      <c r="K103" t="s">
+      <c r="J103" s="11"/>
+      <c r="K103" s="9"/>
+      <c r="L103" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>256</v>
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="14"/>
+      <c r="E104" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="16"/>
-      <c r="K104" t="s">
+      <c r="J104" s="14"/>
+      <c r="K104" s="16"/>
+      <c r="L104" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>156</v>
       </c>
@@ -4583,34 +4831,37 @@
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="K105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>1</v>
       </c>
@@ -4618,47 +4869,47 @@
         <v>259</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="F106" s="18" t="s">
+      <c r="G106" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="G106" s="56" t="s">
+      <c r="H106" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="I106" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="I106" s="17" t="s">
+      <c r="J106" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J106" s="19" t="s">
+      <c r="K106" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="32" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="8">
-        <f>SUM(G106:G106)</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="24">
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="8">
         <f>SUM(H106:H106)</f>
         <v>0</v>
       </c>
@@ -4666,47 +4917,52 @@
         <f>SUM(I106:I106)</f>
         <v>0</v>
       </c>
-      <c r="J107" s="25">
+      <c r="J107" s="24">
         <f>SUM(J106:J106)</f>
         <v>0</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107" s="25">
+        <f>SUM(K106:K106)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="11"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
       <c r="I108" s="11"/>
-      <c r="J108" s="9"/>
-      <c r="K108" t="s">
+      <c r="J108" s="11"/>
+      <c r="K108" s="9"/>
+      <c r="L108" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>268</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="14"/>
+      <c r="E109" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
-      <c r="J109" s="16"/>
-      <c r="K109" t="s">
+      <c r="J109" s="14"/>
+      <c r="K109" s="16"/>
+      <c r="L109" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>156</v>
       </c>
@@ -4714,34 +4970,37 @@
         <v>7</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J110" s="4" t="s">
+      <c r="K110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>1</v>
       </c>
@@ -4749,47 +5008,47 @@
         <v>271</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F111" s="18" t="s">
+      <c r="G111" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="G111" s="56" t="s">
+      <c r="H111" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="H111" s="17" t="s">
+      <c r="I111" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="I111" s="17" t="s">
+      <c r="J111" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="J111" s="19" t="s">
+      <c r="K111" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="32" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="8">
-        <f>SUM(G111:G111)</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="24">
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="8">
         <f>SUM(H111:H111)</f>
         <v>0</v>
       </c>
@@ -4797,47 +5056,52 @@
         <f>SUM(I111:I111)</f>
         <v>0</v>
       </c>
-      <c r="J112" s="25">
+      <c r="J112" s="24">
         <f>SUM(J111:J111)</f>
         <v>0</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="25">
+        <f>SUM(K111:K111)</f>
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="11"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
       <c r="I113" s="11"/>
-      <c r="J113" s="9"/>
-      <c r="K113" t="s">
+      <c r="J113" s="11"/>
+      <c r="K113" s="9"/>
+      <c r="L113" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
-      <c r="D114" s="15" t="s">
+      <c r="D114" s="14"/>
+      <c r="E114" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
-      <c r="J114" s="16"/>
-      <c r="K114" t="s">
+      <c r="J114" s="14"/>
+      <c r="K114" s="16"/>
+      <c r="L114" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>156</v>
       </c>
@@ -4845,34 +5109,37 @@
         <v>7</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="K115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>1</v>
       </c>
@@ -4880,47 +5147,47 @@
         <v>283</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="F116" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="G116" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G116" s="56" t="s">
+      <c r="H116" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="H116" s="17" t="s">
+      <c r="I116" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="I116" s="17" t="s">
+      <c r="J116" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="J116" s="19" t="s">
+      <c r="K116" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="8">
-        <f>SUM(G116:G116)</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="24">
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="8">
         <f>SUM(H116:H116)</f>
         <v>0</v>
       </c>
@@ -4928,47 +5195,52 @@
         <f>SUM(I116:I116)</f>
         <v>0</v>
       </c>
-      <c r="J117" s="25">
+      <c r="J117" s="24">
         <f>SUM(J116:J116)</f>
         <v>0</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="25">
+        <f>SUM(K116:K116)</f>
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="11"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12"/>
       <c r="I118" s="11"/>
-      <c r="J118" s="9"/>
-      <c r="K118" t="s">
+      <c r="J118" s="11"/>
+      <c r="K118" s="9"/>
+      <c r="L118" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>292</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
-      <c r="D119" s="15" t="s">
+      <c r="D119" s="14"/>
+      <c r="E119" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
-      <c r="J119" s="16"/>
-      <c r="K119" t="s">
+      <c r="J119" s="14"/>
+      <c r="K119" s="16"/>
+      <c r="L119" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>156</v>
       </c>
@@ -4976,34 +5248,37 @@
         <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="H120" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="J120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="K120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>1</v>
       </c>
@@ -5011,47 +5286,47 @@
         <v>295</v>
       </c>
       <c r="C121" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="F121" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F121" s="18" t="s">
+      <c r="G121" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="G121" s="56" t="s">
+      <c r="H121" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="I121" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="I121" s="17" t="s">
+      <c r="J121" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="J121" s="19" t="s">
+      <c r="K121" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="32" t="s">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="8">
-        <f>SUM(G121:G121)</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="24">
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="8">
         <f>SUM(H121:H121)</f>
         <v>0</v>
       </c>
@@ -5059,47 +5334,52 @@
         <f>SUM(I121:I121)</f>
         <v>0</v>
       </c>
-      <c r="J122" s="25">
+      <c r="J122" s="24">
         <f>SUM(J121:J121)</f>
         <v>0</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="25">
+        <f>SUM(K121:K121)</f>
+        <v>0</v>
+      </c>
+      <c r="L122" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="11"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="12"/>
       <c r="I123" s="11"/>
-      <c r="J123" s="9"/>
-      <c r="K123" t="s">
+      <c r="J123" s="11"/>
+      <c r="K123" s="9"/>
+      <c r="L123" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="14"/>
+      <c r="E124" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
-      <c r="J124" s="16"/>
-      <c r="K124" t="s">
+      <c r="J124" s="14"/>
+      <c r="K124" s="16"/>
+      <c r="L124" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>156</v>
       </c>
@@ -5107,34 +5387,37 @@
         <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="J125" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J125" s="4" t="s">
+      <c r="K125" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K125" t="s">
+      <c r="L125" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>1</v>
       </c>
@@ -5142,47 +5425,47 @@
         <v>307</v>
       </c>
       <c r="C126" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="F126" s="18" t="s">
+      <c r="G126" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="G126" s="56" t="s">
+      <c r="H126" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="H126" s="17" t="s">
+      <c r="I126" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="I126" s="17" t="s">
+      <c r="J126" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="J126" s="19" t="s">
+      <c r="K126" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="32" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="8">
-        <f>SUM(G126:G126)</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="21">
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="8">
         <f>SUM(H126:H126)</f>
         <v>0</v>
       </c>
@@ -5190,47 +5473,52 @@
         <f>SUM(I126:I126)</f>
         <v>0</v>
       </c>
-      <c r="J127" s="22">
+      <c r="J127" s="21">
         <f>SUM(J126:J126)</f>
         <v>0</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="22">
+        <f>SUM(K126:K126)</f>
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="11"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="12"/>
       <c r="I128" s="11"/>
-      <c r="J128" s="9"/>
-      <c r="K128" t="s">
+      <c r="J128" s="11"/>
+      <c r="K128" s="9"/>
+      <c r="L128" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>316</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
-      <c r="D129" s="15" t="s">
+      <c r="D129" s="14"/>
+      <c r="E129" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
-      <c r="J129" s="16"/>
-      <c r="K129" t="s">
+      <c r="J129" s="14"/>
+      <c r="K129" s="16"/>
+      <c r="L129" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>156</v>
       </c>
@@ -5238,34 +5526,37 @@
         <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="K130" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K130" t="s">
+      <c r="L130" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>1</v>
       </c>
@@ -5273,47 +5564,47 @@
         <v>319</v>
       </c>
       <c r="C131" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="F131" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F131" s="18" t="s">
+      <c r="G131" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="G131" s="56" t="s">
+      <c r="H131" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="H131" s="17" t="s">
+      <c r="I131" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="I131" s="17" t="s">
+      <c r="J131" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="J131" s="19" t="s">
+      <c r="K131" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="32" t="s">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="8">
-        <f>SUM(G131:G131)</f>
-        <v>0</v>
-      </c>
-      <c r="H132" s="21">
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="8">
         <f>SUM(H131:H131)</f>
         <v>0</v>
       </c>
@@ -5321,47 +5612,52 @@
         <f>SUM(I131:I131)</f>
         <v>0</v>
       </c>
-      <c r="J132" s="22">
+      <c r="J132" s="21">
         <f>SUM(J131:J131)</f>
         <v>0</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="22">
+        <f>SUM(K131:K131)</f>
+        <v>0</v>
+      </c>
+      <c r="L132" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="11"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="12"/>
       <c r="I133" s="11"/>
-      <c r="J133" s="9"/>
-      <c r="K133" t="s">
+      <c r="J133" s="11"/>
+      <c r="K133" s="9"/>
+      <c r="L133" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>328</v>
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
-      <c r="D134" s="15" t="s">
+      <c r="D134" s="14"/>
+      <c r="E134" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
-      <c r="J134" s="16"/>
-      <c r="K134" t="s">
+      <c r="J134" s="14"/>
+      <c r="K134" s="16"/>
+      <c r="L134" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>156</v>
       </c>
@@ -5369,34 +5665,37 @@
         <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="3" t="s">
+      <c r="J135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J135" s="4" t="s">
+      <c r="K135" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K135" t="s">
+      <c r="L135" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>1</v>
       </c>
@@ -5404,47 +5703,47 @@
         <v>331</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="F136" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="G136" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="G136" s="56" t="s">
+      <c r="H136" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="H136" s="17" t="s">
+      <c r="I136" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="I136" s="17" t="s">
+      <c r="J136" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="J136" s="19" t="s">
+      <c r="K136" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="K136" t="s">
+      <c r="L136" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="32" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="8">
-        <f>SUM(G136:G136)</f>
-        <v>0</v>
-      </c>
-      <c r="H137" s="21">
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="8">
         <f>SUM(H136:H136)</f>
         <v>0</v>
       </c>
@@ -5452,47 +5751,52 @@
         <f>SUM(I136:I136)</f>
         <v>0</v>
       </c>
-      <c r="J137" s="22">
+      <c r="J137" s="21">
         <f>SUM(J136:J136)</f>
         <v>0</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K137" s="22">
+        <f>SUM(K136:K136)</f>
+        <v>0</v>
+      </c>
+      <c r="L137" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="11"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="12"/>
       <c r="I138" s="11"/>
-      <c r="J138" s="9"/>
-      <c r="K138" t="s">
+      <c r="J138" s="11"/>
+      <c r="K138" s="9"/>
+      <c r="L138" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>340</v>
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
-      <c r="D139" s="15" t="s">
+      <c r="D139" s="14"/>
+      <c r="E139" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
-      <c r="J139" s="16"/>
-      <c r="K139" t="s">
+      <c r="J139" s="14"/>
+      <c r="K139" s="16"/>
+      <c r="L139" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>156</v>
       </c>
@@ -5500,34 +5804,37 @@
         <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="I140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I140" s="3" t="s">
+      <c r="J140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J140" s="4" t="s">
+      <c r="K140" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K140" t="s">
+      <c r="L140" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>1</v>
       </c>
@@ -5535,47 +5842,47 @@
         <v>343</v>
       </c>
       <c r="C141" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="F141" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F141" s="18" t="s">
+      <c r="G141" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="G141" s="56" t="s">
+      <c r="H141" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="H141" s="17" t="s">
+      <c r="I141" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="I141" s="17" t="s">
+      <c r="J141" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="J141" s="19" t="s">
+      <c r="K141" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="K141" t="s">
+      <c r="L141" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="32" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="8">
-        <f>SUM(G141:G141)</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="24">
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="8">
         <f>SUM(H141:H141)</f>
         <v>0</v>
       </c>
@@ -5583,444 +5890,464 @@
         <f>SUM(I141:I141)</f>
         <v>0</v>
       </c>
-      <c r="J142" s="25">
+      <c r="J142" s="24">
         <f>SUM(J141:J141)</f>
         <v>0</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142" s="25">
+        <f>SUM(K141:K141)</f>
+        <v>0</v>
+      </c>
+      <c r="L142" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="11"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="12"/>
       <c r="I143" s="11"/>
-      <c r="J143" s="9"/>
-      <c r="K143" t="s">
+      <c r="J143" s="11"/>
+      <c r="K143" s="9"/>
+      <c r="L143" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>170</v>
       </c>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
-      <c r="D144" s="15" t="s">
+      <c r="D144" s="14"/>
+      <c r="E144" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E144" s="14"/>
-      <c r="F144" s="16"/>
-      <c r="G144" t="s">
+      <c r="F144" s="14"/>
+      <c r="G144" s="16"/>
+      <c r="H144" t="s">
         <v>176</v>
       </c>
-      <c r="H144" s="11"/>
       <c r="I144" s="11"/>
-      <c r="J144" s="9"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J144" s="11"/>
+      <c r="K144" s="9"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C145" s="30"/>
-      <c r="D145" s="3" t="s">
+      <c r="C145" s="48"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="G145" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>176</v>
       </c>
-      <c r="H145" s="11"/>
       <c r="I145" s="11"/>
-      <c r="J145" s="9"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J145" s="11"/>
+      <c r="K145" s="9"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="27">
         <v>1</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B146" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="28" t="s">
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E146" s="28" t="s">
+      <c r="F146" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F146" s="29" t="s">
+      <c r="G146" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>176</v>
       </c>
-      <c r="H146" s="11"/>
       <c r="I146" s="11"/>
-      <c r="J146" s="9"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J146" s="11"/>
+      <c r="K146" s="9"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="11"/>
-      <c r="G147" t="s">
+      <c r="F147" s="9"/>
+      <c r="G147" s="11"/>
+      <c r="H147" t="s">
         <v>176</v>
       </c>
-      <c r="H147" s="11"/>
       <c r="I147" s="11"/>
-      <c r="J147" s="9"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J147" s="11"/>
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>352</v>
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
-      <c r="D148" s="15" t="s">
+      <c r="D148" s="14"/>
+      <c r="E148" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="E148" s="14"/>
-      <c r="F148" s="16"/>
-      <c r="G148" t="s">
+      <c r="F148" s="14"/>
+      <c r="G148" s="16"/>
+      <c r="H148" t="s">
         <v>354</v>
       </c>
-      <c r="H148" s="11"/>
       <c r="I148" s="11"/>
-      <c r="J148" s="9"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J148" s="11"/>
+      <c r="K148" s="9"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C149" s="30"/>
-      <c r="D149" s="3" t="s">
+      <c r="C149" s="48"/>
+      <c r="D149" s="48"/>
+      <c r="E149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="G149" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>354</v>
       </c>
-      <c r="H149" s="11"/>
       <c r="I149" s="11"/>
-      <c r="J149" s="9"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J149" s="11"/>
+      <c r="K149" s="9"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="27">
         <v>1</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B150" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="31"/>
-      <c r="D150" s="28" t="s">
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="E150" s="28" t="s">
+      <c r="F150" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="F150" s="29" t="s">
+      <c r="G150" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>354</v>
       </c>
-      <c r="H150" s="11"/>
       <c r="I150" s="11"/>
-      <c r="J150" s="9"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J150" s="11"/>
+      <c r="K150" s="9"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="11"/>
-      <c r="G151" t="s">
+      <c r="F151" s="9"/>
+      <c r="G151" s="11"/>
+      <c r="H151" t="s">
         <v>354</v>
       </c>
-      <c r="H151" s="11"/>
       <c r="I151" s="11"/>
-      <c r="J151" s="9"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J151" s="11"/>
+      <c r="K151" s="9"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>359</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
-      <c r="D152" s="15" t="s">
+      <c r="D152" s="14"/>
+      <c r="E152" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E152" s="14"/>
-      <c r="F152" s="16"/>
-      <c r="G152" t="s">
+      <c r="F152" s="14"/>
+      <c r="G152" s="16"/>
+      <c r="H152" t="s">
         <v>361</v>
       </c>
-      <c r="H152" s="11"/>
       <c r="I152" s="11"/>
-      <c r="J152" s="9"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J152" s="11"/>
+      <c r="K152" s="9"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C153" s="30"/>
-      <c r="D153" s="3" t="s">
+      <c r="C153" s="48"/>
+      <c r="D153" s="48"/>
+      <c r="E153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="F153" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="G153" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>361</v>
       </c>
-      <c r="H153" s="11"/>
       <c r="I153" s="11"/>
-      <c r="J153" s="9"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J153" s="11"/>
+      <c r="K153" s="9"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="27">
         <v>1</v>
       </c>
-      <c r="B154" s="31" t="s">
+      <c r="B154" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="C154" s="31"/>
-      <c r="D154" s="28" t="s">
+      <c r="C154" s="53"/>
+      <c r="D154" s="53"/>
+      <c r="E154" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="E154" s="28" t="s">
+      <c r="F154" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F154" s="29" t="s">
+      <c r="G154" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>361</v>
       </c>
-      <c r="H154" s="11"/>
       <c r="I154" s="11"/>
-      <c r="J154" s="9"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J154" s="11"/>
+      <c r="K154" s="9"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="11"/>
-      <c r="G155" t="s">
+      <c r="F155" s="9"/>
+      <c r="G155" s="11"/>
+      <c r="H155" t="s">
         <v>361</v>
       </c>
-      <c r="H155" s="11"/>
       <c r="I155" s="11"/>
-      <c r="J155" s="9"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J155" s="11"/>
+      <c r="K155" s="9"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>366</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
-      <c r="D156" s="15" t="s">
+      <c r="D156" s="14"/>
+      <c r="E156" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="E156" s="14"/>
-      <c r="F156" s="16"/>
-      <c r="G156" t="s">
+      <c r="F156" s="14"/>
+      <c r="G156" s="16"/>
+      <c r="H156" t="s">
         <v>368</v>
       </c>
-      <c r="H156" s="11"/>
       <c r="I156" s="11"/>
-      <c r="J156" s="9"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J156" s="11"/>
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C157" s="30"/>
-      <c r="D157" s="3" t="s">
+      <c r="C157" s="48"/>
+      <c r="D157" s="48"/>
+      <c r="E157" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="G157" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>368</v>
       </c>
-      <c r="H157" s="11"/>
       <c r="I157" s="11"/>
-      <c r="J157" s="9"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J157" s="11"/>
+      <c r="K157" s="9"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="27">
         <v>1</v>
       </c>
-      <c r="B158" s="31" t="s">
+      <c r="B158" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="28" t="s">
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="E158" s="28" t="s">
+      <c r="F158" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="F158" s="29" t="s">
+      <c r="G158" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>368</v>
       </c>
-      <c r="H158" s="11"/>
       <c r="I158" s="11"/>
-      <c r="J158" s="9"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J158" s="11"/>
+      <c r="K158" s="9"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="11"/>
-      <c r="G159" t="s">
+      <c r="F159" s="9"/>
+      <c r="G159" s="11"/>
+      <c r="H159" t="s">
         <v>368</v>
       </c>
-      <c r="H159" s="11"/>
       <c r="I159" s="11"/>
-      <c r="J159" s="9"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J159" s="11"/>
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>373</v>
       </c>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="14"/>
+      <c r="E160" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E160" s="14"/>
-      <c r="F160" s="16"/>
-      <c r="G160" t="s">
+      <c r="F160" s="14"/>
+      <c r="G160" s="16"/>
+      <c r="H160" t="s">
         <v>375</v>
       </c>
-      <c r="H160" s="11"/>
       <c r="I160" s="11"/>
-      <c r="J160" s="9"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J160" s="11"/>
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="30"/>
-      <c r="D161" s="3" t="s">
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="G161" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>375</v>
       </c>
-      <c r="H161" s="11"/>
       <c r="I161" s="11"/>
-      <c r="J161" s="9"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J161" s="11"/>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="27">
         <v>1</v>
       </c>
-      <c r="B162" s="31" t="s">
+      <c r="B162" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="C162" s="31"/>
-      <c r="D162" s="28" t="s">
+      <c r="C162" s="53"/>
+      <c r="D162" s="53"/>
+      <c r="E162" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="E162" s="28" t="s">
+      <c r="F162" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="F162" s="29" t="s">
+      <c r="G162" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>375</v>
       </c>
-      <c r="I162" s="11"/>
-      <c r="J162" s="9"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J162" s="11"/>
+      <c r="K162" s="9"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="11"/>
-      <c r="G163" t="s">
+      <c r="F163" s="9"/>
+      <c r="G163" s="11"/>
+      <c r="H163" t="s">
         <v>375</v>
       </c>
-      <c r="I163" s="11"/>
-      <c r="J163" s="9"/>
-    </row>
-    <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A164" s="53" t="s">
+      <c r="J163" s="11"/>
+      <c r="K163" s="9"/>
+    </row>
+    <row r="164" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="9"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F164" s="9"/>
+      <c r="G164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="9"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
         <v>382</v>
       </c>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
-      <c r="D165" s="15" t="s">
+      <c r="D165" s="14"/>
+      <c r="E165" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="E165" s="14"/>
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
-      <c r="I165" s="16"/>
-      <c r="J165" t="s">
+      <c r="I165" s="14"/>
+      <c r="J165" s="16"/>
+      <c r="K165" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>156</v>
       </c>
@@ -6028,31 +6355,34 @@
         <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="H166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="I166" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I166" s="4" t="s">
+      <c r="J166" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J166" t="s">
+      <c r="K166" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>1</v>
       </c>
@@ -6060,81 +6390,86 @@
         <v>385</v>
       </c>
       <c r="C167" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="F167" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="F167" s="18" t="s">
+      <c r="G167" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="G167" s="56" t="s">
+      <c r="H167" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="H167" s="17" t="s">
+      <c r="I167" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="I167" s="19" t="s">
+      <c r="J167" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="32" t="s">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B168" s="37"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="8">
-        <f>SUM(G167:G167)</f>
-        <v>0</v>
-      </c>
-      <c r="H168" s="21">
+      <c r="B168" s="34"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="8">
         <f>SUM(H167:H167)</f>
         <v>0</v>
       </c>
-      <c r="I168" s="22">
+      <c r="I168" s="21">
         <f>SUM(I167:I167)</f>
         <v>0</v>
       </c>
-      <c r="J168" t="s">
+      <c r="J168" s="22">
+        <f>SUM(J167:J167)</f>
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J169" t="s">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K169" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
-      <c r="D170" s="13" t="str">
+      <c r="D170" s="14"/>
+      <c r="E170" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="E170" s="14"/>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
-      <c r="I170" s="16"/>
-      <c r="J170" t="s">
+      <c r="I170" s="14"/>
+      <c r="J170" s="16"/>
+      <c r="K170" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>156</v>
       </c>
@@ -6142,95 +6477,101 @@
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="G171" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="H171" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="I171" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I171" s="4" t="s">
+      <c r="J171" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J171" t="s">
+      <c r="K171" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="34" t="s">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="B172" s="54"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="54"/>
-      <c r="H172" s="54"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="55"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="55"/>
       <c r="I172" s="55"/>
-      <c r="J172" t="s">
+      <c r="J172" s="56"/>
+      <c r="K172" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="32" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B173" s="37"/>
-      <c r="C173" s="37"/>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="8">
-        <f>SUM(G172:G172)</f>
-        <v>0</v>
-      </c>
-      <c r="H173" s="21">
+      <c r="B173" s="34"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="8">
         <f>SUM(H172:H172)</f>
         <v>0</v>
       </c>
-      <c r="I173" s="22">
+      <c r="I173" s="21">
         <f>SUM(I172:I172)</f>
         <v>0</v>
       </c>
-      <c r="J173" t="s">
+      <c r="J173" s="22">
+        <f>SUM(J172:J172)</f>
+        <v>0</v>
+      </c>
+      <c r="K173" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J174" t="s">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K174" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
         <v>394</v>
       </c>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
-      <c r="D175" s="15" t="s">
+      <c r="D175" s="14"/>
+      <c r="E175" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
-      <c r="I175" s="16"/>
-      <c r="J175" t="s">
+      <c r="I175" s="14"/>
+      <c r="J175" s="16"/>
+      <c r="K175" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>156</v>
       </c>
@@ -6238,31 +6579,34 @@
         <v>7</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="H176" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="I176" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I176" s="4" t="s">
+      <c r="J176" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>1</v>
       </c>
@@ -6270,86 +6614,91 @@
         <v>397</v>
       </c>
       <c r="C177" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="E177" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="F177" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="F177" s="18" t="s">
+      <c r="G177" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="G177" s="56" t="s">
+      <c r="H177" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="H177" s="17" t="s">
+      <c r="I177" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="I177" s="19" t="s">
+      <c r="J177" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="J177" t="s">
+      <c r="K177" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="32" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="37"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="37"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="8">
-        <f>SUM(G177:G177)</f>
-        <v>0</v>
-      </c>
-      <c r="H178" s="21">
+      <c r="B178" s="34"/>
+      <c r="C178" s="34"/>
+      <c r="D178" s="34"/>
+      <c r="E178" s="34"/>
+      <c r="F178" s="34"/>
+      <c r="G178" s="34"/>
+      <c r="H178" s="8">
         <f>SUM(H177:H177)</f>
         <v>0</v>
       </c>
-      <c r="I178" s="22">
+      <c r="I178" s="21">
         <f>SUM(I177:I177)</f>
         <v>0</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J178" s="22">
+        <f>SUM(J177:J177)</f>
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="D179" s="9"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="9"/>
-      <c r="J179" t="s">
+      <c r="F179" s="9"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="9"/>
+      <c r="K179" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>405</v>
       </c>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
-      <c r="D180" s="15" t="s">
+      <c r="D180" s="14"/>
+      <c r="E180" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="E180" s="14"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
-      <c r="I180" s="16"/>
-      <c r="J180" t="s">
+      <c r="I180" s="14"/>
+      <c r="J180" s="16"/>
+      <c r="K180" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>156</v>
       </c>
@@ -6357,31 +6706,34 @@
         <v>7</v>
       </c>
       <c r="C181" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="E181" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="G181" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="H181" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="I181" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I181" s="4" t="s">
+      <c r="J181" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J181" t="s">
+      <c r="K181" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>1</v>
       </c>
@@ -6389,86 +6741,91 @@
         <v>408</v>
       </c>
       <c r="C182" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D182" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="E182" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="F182" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="F182" s="18" t="s">
+      <c r="G182" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="G182" s="56" t="s">
+      <c r="H182" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="H182" s="17" t="s">
+      <c r="I182" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="I182" s="19" t="s">
+      <c r="J182" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="J182" t="s">
+      <c r="K182" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A183" s="32" t="s">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B183" s="37"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="37"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="8">
-        <f>SUM(G182:G182)</f>
-        <v>0</v>
-      </c>
-      <c r="H183" s="21">
+      <c r="B183" s="34"/>
+      <c r="C183" s="34"/>
+      <c r="D183" s="34"/>
+      <c r="E183" s="34"/>
+      <c r="F183" s="34"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="8">
         <f>SUM(H182:H182)</f>
         <v>0</v>
       </c>
-      <c r="I183" s="22">
+      <c r="I183" s="21">
         <f>SUM(I182:I182)</f>
         <v>0</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J183" s="22">
+        <f>SUM(J182:J182)</f>
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="D184" s="9"/>
       <c r="E184" s="9"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="9"/>
-      <c r="J184" t="s">
+      <c r="F184" s="9"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="9"/>
+      <c r="K184" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
         <v>416</v>
       </c>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
-      <c r="D185" s="15" t="s">
+      <c r="D185" s="14"/>
+      <c r="E185" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="E185" s="14"/>
       <c r="F185" s="14"/>
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
-      <c r="I185" s="16"/>
-      <c r="J185" t="s">
+      <c r="I185" s="14"/>
+      <c r="J185" s="16"/>
+      <c r="K185" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>156</v>
       </c>
@@ -6476,31 +6833,34 @@
         <v>7</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="H186" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H186" s="3" t="s">
+      <c r="I186" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I186" s="4" t="s">
+      <c r="J186" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J186" t="s">
+      <c r="K186" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>1</v>
       </c>
@@ -6508,86 +6868,91 @@
         <v>419</v>
       </c>
       <c r="C187" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D187" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="E187" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="F187" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F187" s="18" t="s">
+      <c r="G187" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="G187" s="56" t="s">
+      <c r="H187" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="H187" s="17" t="s">
+      <c r="I187" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="I187" s="19" t="s">
+      <c r="J187" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="J187" t="s">
+      <c r="K187" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="32" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B188" s="37"/>
-      <c r="C188" s="37"/>
-      <c r="D188" s="37"/>
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
-      <c r="G188" s="8">
-        <f>SUM(G187:G187)</f>
-        <v>0</v>
-      </c>
-      <c r="H188" s="21">
+      <c r="B188" s="34"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="34"/>
+      <c r="F188" s="34"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="8">
         <f>SUM(H187:H187)</f>
         <v>0</v>
       </c>
-      <c r="I188" s="22">
+      <c r="I188" s="21">
         <f>SUM(I187:I187)</f>
         <v>0</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J188" s="22">
+        <f>SUM(J187:J187)</f>
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="D189" s="9"/>
       <c r="E189" s="9"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="9"/>
-      <c r="J189" t="s">
+      <c r="F189" s="9"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="9"/>
+      <c r="K189" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>427</v>
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
-      <c r="D190" s="15" t="s">
+      <c r="D190" s="14"/>
+      <c r="E190" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="E190" s="14"/>
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
       <c r="H190" s="14"/>
-      <c r="I190" s="16"/>
-      <c r="J190" t="s">
+      <c r="I190" s="14"/>
+      <c r="J190" s="16"/>
+      <c r="K190" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>156</v>
       </c>
@@ -6595,31 +6960,34 @@
         <v>7</v>
       </c>
       <c r="C191" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="F191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="H191" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="I191" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I191" s="4" t="s">
+      <c r="J191" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J191" t="s">
+      <c r="K191" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>1</v>
       </c>
@@ -6627,225 +6995,233 @@
         <v>430</v>
       </c>
       <c r="C192" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="E192" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="F192" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="F192" s="18" t="s">
+      <c r="G192" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="G192" s="56" t="s">
+      <c r="H192" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="H192" s="17" t="s">
+      <c r="I192" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="I192" s="19" t="s">
+      <c r="J192" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="J192" t="s">
+      <c r="K192" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="32" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B193" s="37"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="8">
-        <f>SUM(G192:G192)</f>
-        <v>0</v>
-      </c>
-      <c r="H193" s="24">
+      <c r="B193" s="34"/>
+      <c r="C193" s="34"/>
+      <c r="D193" s="34"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="8">
         <f>SUM(H192:H192)</f>
         <v>0</v>
       </c>
-      <c r="I193" s="25">
+      <c r="I193" s="24">
         <f>SUM(I192:I192)</f>
         <v>0</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" s="25">
+        <f>SUM(J192:J192)</f>
+        <v>0</v>
+      </c>
+      <c r="K193" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="D194" s="9"/>
       <c r="E194" s="9"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="9"/>
-      <c r="J194" t="s">
+      <c r="F194" s="9"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="9"/>
+      <c r="K194" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C196" s="30"/>
-      <c r="D196" s="3" t="s">
+      <c r="C196" s="48"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="F196" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="H196" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H196" s="4" t="s">
+      <c r="I196" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>1</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C197" s="38"/>
-      <c r="D197" s="6" t="s">
+      <c r="C197" s="49"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="F197" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F197" s="20" t="s">
+      <c r="G197" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="H197" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="H197" s="23" t="s">
+      <c r="I197" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="I197" s="6" t="s">
+      <c r="J197" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="34" t="s">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="B198" s="35"/>
-      <c r="C198" s="35"/>
-      <c r="D198" s="35"/>
-      <c r="E198" s="35"/>
-      <c r="F198" s="35"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="36"/>
-      <c r="I198" s="6" t="s">
+      <c r="B198" s="45"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="45"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
+      <c r="G198" s="45"/>
+      <c r="H198" s="45"/>
+      <c r="I198" s="46"/>
+      <c r="J198" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="32" t="s">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="33"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="21">
-        <f>SUM(F197:F197)</f>
-        <v>0</v>
-      </c>
+      <c r="B199" s="54"/>
+      <c r="C199" s="54"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="54"/>
+      <c r="F199" s="54"/>
       <c r="G199" s="21">
         <f>SUM(G197:G197)</f>
         <v>0</v>
       </c>
-      <c r="H199" s="22">
+      <c r="H199" s="21">
         <f>SUM(H197:H197)</f>
+        <v>0</v>
+      </c>
+      <c r="I199" s="22">
+        <f>SUM(I197:I197)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A198:I198"/>
+    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="A188:G188"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="A172:J172"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="A168:F168"/>
-    <mergeCell ref="A173:F173"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A198:H198"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="A172:I172"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/resources/xlsx/export_billing_detail.xlsx
+++ b/resources/xlsx/export_billing_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mmj\project\PHP\MARGO-BARU\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B2D8E0-D41F-4AEB-9E43-DBEE0B8946E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB28AB-BFDF-4E80-9025-B60B98C717B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16F53B30-EA35-46C9-9529-5DBEDB6DC1E5}"/>
   </bookViews>
@@ -2169,8 +2169,8 @@
   </sheetPr>
   <dimension ref="A2:L199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/resources/xlsx/export_billing_detail.xlsx
+++ b/resources/xlsx/export_billing_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mmj\project\PHP\MARGO-BARU\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB28AB-BFDF-4E80-9025-B60B98C717B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C292A02-0B8D-4CCA-9A18-5BEA09E099CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{16F53B30-EA35-46C9-9529-5DBEDB6DC1E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="501">
   <si>
     <t>Nama Sales</t>
   </si>
@@ -1446,6 +1446,99 @@
   </si>
   <si>
     <t>[returs5.items.cover]</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>[invoices1.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices2.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices3.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices4.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices5.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices6.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices7.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices8.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices9.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices10.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices11.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices12.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices13.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices14.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices15.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices16.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices17.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices18.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices19.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices20.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices21.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices22.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices23.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices24.items.code]</t>
+  </si>
+  <si>
+    <t>[invoices25.items.code]</t>
+  </si>
+  <si>
+    <t>[returs1.items.code]</t>
+  </si>
+  <si>
+    <t>[returs2.items.code]</t>
+  </si>
+  <si>
+    <t>[returs3.items.code]</t>
+  </si>
+  <si>
+    <t>[returs4.items.code]</t>
+  </si>
+  <si>
+    <t>[returs5.items.code]</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1752,20 +1845,56 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1790,45 +1919,17 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2167,285 +2268,300 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L199"/>
+  <dimension ref="A2:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="11" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="12" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="36" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="37" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="7"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="44"/>
+      <c r="I8" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="J8" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="51" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42">
-        <f>SUM(E9:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="57"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54">
+        <f>SUM(F9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="16"/>
-      <c r="L14" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="I16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="K16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="L16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="8">
-        <f>SUM(H16:H16)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="8">
         <f>SUM(I16:I16)</f>
         <v>0</v>
       </c>
@@ -2453,112 +2569,118 @@
         <f>SUM(J16:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <f>SUM(K16:K16)</f>
         <v>0</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="22">
+        <f>SUM(L16:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L18" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="13" t="str">
+      <c r="E19" s="14"/>
+      <c r="F19" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="16"/>
-      <c r="L19" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="16"/>
+      <c r="M19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
-      <c r="L21" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="8">
-        <f>SUM(H21:H21)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="8">
         <f>SUM(I21:I21)</f>
         <v>0</v>
       </c>
@@ -2566,130 +2688,138 @@
         <f>SUM(J21:J21)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <f>SUM(K21:K21)</f>
         <v>0</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="22">
+        <f>SUM(L21:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L23" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="16"/>
-      <c r="L24" t="s">
+      <c r="K24" s="14"/>
+      <c r="L24" s="16"/>
+      <c r="M24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="H26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="I26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="J26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="K26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="L26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="8">
-        <f>SUM(H26:H26)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="8">
         <f>SUM(I26:I26)</f>
         <v>0</v>
       </c>
@@ -2697,138 +2827,147 @@
         <f>SUM(J26:J26)</f>
         <v>0</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <f>SUM(K26:K26)</f>
         <v>0</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="22">
+        <f>SUM(L26:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="9"/>
-      <c r="L28" t="s">
+      <c r="K28" s="11"/>
+      <c r="L28" s="9"/>
+      <c r="M28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="16"/>
-      <c r="L29" t="s">
+      <c r="K29" s="14"/>
+      <c r="L29" s="16"/>
+      <c r="M29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="H31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="I31" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="J31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="K31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="L31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="8">
-        <f>SUM(H31:H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="21">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="8">
         <f>SUM(I31:I31)</f>
         <v>0</v>
       </c>
@@ -2836,138 +2975,147 @@
         <f>SUM(J31:J31)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="21">
         <f>SUM(K31:K31)</f>
         <v>0</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="22">
+        <f>SUM(L31:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
-      <c r="E33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="9"/>
-      <c r="L33" t="s">
+      <c r="K33" s="11"/>
+      <c r="L33" s="9"/>
+      <c r="M33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="14"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="16"/>
-      <c r="L34" t="s">
+      <c r="K34" s="14"/>
+      <c r="L34" s="16"/>
+      <c r="M34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="H36" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="I36" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="J36" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="K36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="L36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="8">
-        <f>SUM(H36:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="21">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="8">
         <f>SUM(I36:I36)</f>
         <v>0</v>
       </c>
@@ -2975,138 +3123,147 @@
         <f>SUM(J36:J36)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="21">
         <f>SUM(K36:K36)</f>
         <v>0</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="22">
+        <f>SUM(L36:L36)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="E38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="11"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="9"/>
-      <c r="L38" t="s">
+      <c r="K38" s="11"/>
+      <c r="L38" s="9"/>
+      <c r="M38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14"/>
+      <c r="F39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="16"/>
-      <c r="L39" t="s">
+      <c r="K39" s="14"/>
+      <c r="L39" s="16"/>
+      <c r="M39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>1</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="H41" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="I41" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="J41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="K41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="L41" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="8">
-        <f>SUM(H41:H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="24">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="8">
         <f>SUM(I41:I41)</f>
         <v>0</v>
       </c>
@@ -3114,138 +3271,147 @@
         <f>SUM(J41:J41)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K42" s="24">
         <f>SUM(K41:K41)</f>
         <v>0</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="25">
+        <f>SUM(L41:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="11"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="9"/>
-      <c r="L43" t="s">
+      <c r="K43" s="11"/>
+      <c r="L43" s="9"/>
+      <c r="M43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14"/>
+      <c r="F44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="16"/>
-      <c r="L44" t="s">
+      <c r="K44" s="14"/>
+      <c r="L44" s="16"/>
+      <c r="M44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>1</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="E46" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="I46" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="J46" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="K46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K46" s="19" t="s">
+      <c r="L46" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="8">
-        <f>SUM(H46:H46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="24">
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="8">
         <f>SUM(I46:I46)</f>
         <v>0</v>
       </c>
@@ -3253,138 +3419,147 @@
         <f>SUM(J46:J46)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="25">
+      <c r="K47" s="24">
         <f>SUM(K46:K46)</f>
         <v>0</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="25">
+        <f>SUM(L46:L46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="10"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="11"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="9"/>
-      <c r="L48" t="s">
+      <c r="K48" s="11"/>
+      <c r="L48" s="9"/>
+      <c r="M48" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="16"/>
-      <c r="L49" t="s">
+      <c r="K49" s="14"/>
+      <c r="L49" s="16"/>
+      <c r="M49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>1</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="H51" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="I51" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="J51" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="K51" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="L51" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="8">
-        <f>SUM(H51:H51)</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="24">
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="8">
         <f>SUM(I51:I51)</f>
         <v>0</v>
       </c>
@@ -3392,138 +3567,147 @@
         <f>SUM(J51:J51)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="25">
+      <c r="K52" s="24">
         <f>SUM(K51:K51)</f>
         <v>0</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="25">
+        <f>SUM(L51:L51)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="10"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="11"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="9"/>
-      <c r="L53" t="s">
+      <c r="K53" s="11"/>
+      <c r="L53" s="9"/>
+      <c r="M53" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14"/>
+      <c r="F54" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="16"/>
-      <c r="L54" t="s">
+      <c r="K54" s="14"/>
+      <c r="L54" s="16"/>
+      <c r="M54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>1</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="F56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="H56" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="I56" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="J56" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="K56" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K56" s="19" t="s">
+      <c r="L56" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="8">
-        <f>SUM(H56:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="24">
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="8">
         <f>SUM(I56:I56)</f>
         <v>0</v>
       </c>
@@ -3531,138 +3715,147 @@
         <f>SUM(J56:J56)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="25">
+      <c r="K57" s="24">
         <f>SUM(K56:K56)</f>
         <v>0</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="25">
+        <f>SUM(L56:L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
-      <c r="E58" s="9"/>
+      <c r="B58" s="10"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="11"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="9"/>
-      <c r="L58" t="s">
+      <c r="K58" s="11"/>
+      <c r="L58" s="9"/>
+      <c r="M58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="14"/>
+      <c r="F59" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
-      <c r="K59" s="16"/>
-      <c r="L59" t="s">
+      <c r="K59" s="14"/>
+      <c r="L59" s="16"/>
+      <c r="M59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="L60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>1</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="H61" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H61" s="31" t="s">
+      <c r="I61" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="J61" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="J61" s="17" t="s">
+      <c r="K61" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="K61" s="19" t="s">
+      <c r="L61" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="8">
-        <f>SUM(H61:H61)</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="24">
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="8">
         <f>SUM(I61:I61)</f>
         <v>0</v>
       </c>
@@ -3670,138 +3863,147 @@
         <f>SUM(J61:J61)</f>
         <v>0</v>
       </c>
-      <c r="K62" s="25">
+      <c r="K62" s="24">
         <f>SUM(K61:K61)</f>
         <v>0</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="25">
+        <f>SUM(L61:L61)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="10"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="11"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="9"/>
-      <c r="L63" t="s">
+      <c r="K63" s="11"/>
+      <c r="L63" s="9"/>
+      <c r="M63" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="58"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="14"/>
+      <c r="F64" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="16"/>
-      <c r="L64" t="s">
+      <c r="K64" s="14"/>
+      <c r="L64" s="16"/>
+      <c r="M64" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="L65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>1</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="H66" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="I66" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="J66" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J66" s="17" t="s">
+      <c r="K66" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K66" s="19" t="s">
+      <c r="L66" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="8">
-        <f>SUM(H66:H66)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="24">
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="8">
         <f>SUM(I66:I66)</f>
         <v>0</v>
       </c>
@@ -3809,138 +4011,147 @@
         <f>SUM(J66:J66)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="25">
+      <c r="K67" s="24">
         <f>SUM(K66:K66)</f>
         <v>0</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="25">
+        <f>SUM(L66:L66)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
-      <c r="E68" s="9"/>
+      <c r="B68" s="10"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="11"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="12"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="9"/>
-      <c r="L68" t="s">
+      <c r="K68" s="11"/>
+      <c r="L68" s="9"/>
+      <c r="M68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14"/>
+      <c r="F69" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="16"/>
-      <c r="L69" t="s">
+      <c r="K69" s="14"/>
+      <c r="L69" s="16"/>
+      <c r="M69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="L70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="H71" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="I71" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="I71" s="17" t="s">
+      <c r="J71" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="J71" s="17" t="s">
+      <c r="K71" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="K71" s="19" t="s">
+      <c r="L71" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="8">
-        <f>SUM(H71:H71)</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="24">
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="8">
         <f>SUM(I71:I71)</f>
         <v>0</v>
       </c>
@@ -3948,138 +4159,147 @@
         <f>SUM(J71:J71)</f>
         <v>0</v>
       </c>
-      <c r="K72" s="25">
+      <c r="K72" s="24">
         <f>SUM(K71:K71)</f>
         <v>0</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="25">
+        <f>SUM(L71:L71)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
-      <c r="E73" s="9"/>
+      <c r="B73" s="10"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="11"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="12"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="9"/>
-      <c r="L73" t="s">
+      <c r="K73" s="11"/>
+      <c r="L73" s="9"/>
+      <c r="M73" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B74" s="14"/>
+      <c r="B74" s="58"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14"/>
+      <c r="F74" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="16"/>
-      <c r="L74" t="s">
+      <c r="K74" s="14"/>
+      <c r="L74" s="16"/>
+      <c r="M74" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>1</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="H76" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="H76" s="31" t="s">
+      <c r="I76" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="J76" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="J76" s="17" t="s">
+      <c r="K76" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="L76" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="8">
-        <f>SUM(H76:H76)</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="21">
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="8">
         <f>SUM(I76:I76)</f>
         <v>0</v>
       </c>
@@ -4087,138 +4307,147 @@
         <f>SUM(J76:J76)</f>
         <v>0</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K77" s="21">
         <f>SUM(K76:K76)</f>
         <v>0</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="22">
+        <f>SUM(L76:L76)</f>
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
-      <c r="E78" s="9"/>
+      <c r="B78" s="10"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="11"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="12"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="9"/>
-      <c r="L78" t="s">
+      <c r="K78" s="11"/>
+      <c r="L78" s="9"/>
+      <c r="M78" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="14"/>
+      <c r="B79" s="58"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14"/>
+      <c r="F79" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
-      <c r="K79" s="16"/>
-      <c r="L79" t="s">
+      <c r="K79" s="14"/>
+      <c r="L79" s="16"/>
+      <c r="M79" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="L80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>1</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="H81" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="I81" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="I81" s="17" t="s">
+      <c r="J81" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="K81" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K81" s="19" t="s">
+      <c r="L81" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="8">
-        <f>SUM(H81:H81)</f>
-        <v>0</v>
-      </c>
-      <c r="I82" s="21">
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="8">
         <f>SUM(I81:I81)</f>
         <v>0</v>
       </c>
@@ -4226,138 +4455,147 @@
         <f>SUM(J81:J81)</f>
         <v>0</v>
       </c>
-      <c r="K82" s="22">
+      <c r="K82" s="21">
         <f>SUM(K81:K81)</f>
         <v>0</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L82" s="22">
+        <f>SUM(L81:L81)</f>
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
-      <c r="E83" s="9"/>
+      <c r="B83" s="10"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="11"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="12"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="9"/>
-      <c r="L83" t="s">
+      <c r="K83" s="11"/>
+      <c r="L83" s="9"/>
+      <c r="M83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B84" s="14"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="14"/>
+      <c r="F84" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="F84" s="14"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
-      <c r="K84" s="16"/>
-      <c r="L84" t="s">
+      <c r="K84" s="14"/>
+      <c r="L84" s="16"/>
+      <c r="M84" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="L85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>1</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="H86" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="I86" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="I86" s="17" t="s">
+      <c r="J86" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="J86" s="17" t="s">
+      <c r="K86" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="K86" s="19" t="s">
+      <c r="L86" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="8">
-        <f>SUM(H86:H86)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="21">
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="8">
         <f>SUM(I86:I86)</f>
         <v>0</v>
       </c>
@@ -4365,138 +4603,147 @@
         <f>SUM(J86:J86)</f>
         <v>0</v>
       </c>
-      <c r="K87" s="22">
+      <c r="K87" s="21">
         <f>SUM(K86:K86)</f>
         <v>0</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L87" s="22">
+        <f>SUM(L86:L86)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="E88" s="9"/>
+      <c r="B88" s="10"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="11"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="12"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="9"/>
-      <c r="L88" t="s">
+      <c r="K88" s="11"/>
+      <c r="L88" s="9"/>
+      <c r="M88" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="14"/>
+      <c r="B89" s="58"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="14"/>
+      <c r="F89" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="16"/>
-      <c r="L89" t="s">
+      <c r="K89" s="14"/>
+      <c r="L89" s="16"/>
+      <c r="M89" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="L90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>1</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="H91" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="H91" s="31" t="s">
+      <c r="I91" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="I91" s="17" t="s">
+      <c r="J91" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="J91" s="17" t="s">
+      <c r="K91" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="K91" s="19" t="s">
+      <c r="L91" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="8">
-        <f>SUM(H91:H91)</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="24">
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="8">
         <f>SUM(I91:I91)</f>
         <v>0</v>
       </c>
@@ -4504,138 +4751,147 @@
         <f>SUM(J91:J91)</f>
         <v>0</v>
       </c>
-      <c r="K92" s="25">
+      <c r="K92" s="24">
         <f>SUM(K91:K91)</f>
         <v>0</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" s="25">
+        <f>SUM(L91:L91)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="E93" s="9"/>
+      <c r="B93" s="10"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="11"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="12"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="9"/>
-      <c r="L93" t="s">
+      <c r="K93" s="11"/>
+      <c r="L93" s="9"/>
+      <c r="M93" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="14"/>
+      <c r="B94" s="58"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="14"/>
+      <c r="F94" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="16"/>
-      <c r="L94" t="s">
+      <c r="K94" s="14"/>
+      <c r="L94" s="16"/>
+      <c r="M94" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="L95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>1</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="H96" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="H96" s="31" t="s">
+      <c r="I96" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="J96" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="J96" s="17" t="s">
+      <c r="K96" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="K96" s="19" t="s">
+      <c r="L96" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="8">
-        <f>SUM(H96:H96)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="24">
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="8">
         <f>SUM(I96:I96)</f>
         <v>0</v>
       </c>
@@ -4643,138 +4899,147 @@
         <f>SUM(J96:J96)</f>
         <v>0</v>
       </c>
-      <c r="K97" s="25">
+      <c r="K97" s="24">
         <f>SUM(K96:K96)</f>
         <v>0</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="25">
+        <f>SUM(L96:L96)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="10"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="11"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="12"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="9"/>
-      <c r="L98" t="s">
+      <c r="K98" s="11"/>
+      <c r="L98" s="9"/>
+      <c r="M98" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="14"/>
+      <c r="B99" s="58"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
-      <c r="E99" s="15" t="s">
+      <c r="E99" s="14"/>
+      <c r="F99" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="16"/>
-      <c r="L99" t="s">
+      <c r="K99" s="14"/>
+      <c r="L99" s="16"/>
+      <c r="M99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="L100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>1</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G101" s="18" t="s">
+      <c r="H101" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="H101" s="31" t="s">
+      <c r="I101" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="I101" s="17" t="s">
+      <c r="J101" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="J101" s="17" t="s">
+      <c r="K101" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="K101" s="19" t="s">
+      <c r="L101" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="8">
-        <f>SUM(H101:H101)</f>
-        <v>0</v>
-      </c>
-      <c r="I102" s="24">
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="8">
         <f>SUM(I101:I101)</f>
         <v>0</v>
       </c>
@@ -4782,138 +5047,147 @@
         <f>SUM(J101:J101)</f>
         <v>0</v>
       </c>
-      <c r="K102" s="25">
+      <c r="K102" s="24">
         <f>SUM(K101:K101)</f>
         <v>0</v>
       </c>
-      <c r="L102" t="s">
+      <c r="L102" s="25">
+        <f>SUM(L101:L101)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
-      <c r="E103" s="9"/>
+      <c r="B103" s="10"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="11"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="12"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="9"/>
-      <c r="L103" t="s">
+      <c r="K103" s="11"/>
+      <c r="L103" s="9"/>
+      <c r="M103" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B104" s="14"/>
+      <c r="B104" s="58"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="15" t="s">
+      <c r="E104" s="14"/>
+      <c r="F104" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
-      <c r="K104" s="16"/>
-      <c r="L104" t="s">
+      <c r="K104" s="14"/>
+      <c r="L104" s="16"/>
+      <c r="M104" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="F105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="L105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>1</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G106" s="18" t="s">
+      <c r="H106" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="H106" s="31" t="s">
+      <c r="I106" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="I106" s="17" t="s">
+      <c r="J106" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="J106" s="17" t="s">
+      <c r="K106" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="K106" s="19" t="s">
+      <c r="L106" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="8">
-        <f>SUM(H106:H106)</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="24">
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="8">
         <f>SUM(I106:I106)</f>
         <v>0</v>
       </c>
@@ -4921,138 +5195,147 @@
         <f>SUM(J106:J106)</f>
         <v>0</v>
       </c>
-      <c r="K107" s="25">
+      <c r="K107" s="24">
         <f>SUM(K106:K106)</f>
         <v>0</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="25">
+        <f>SUM(L106:L106)</f>
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="10"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="11"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="12"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="9"/>
-      <c r="L108" t="s">
+      <c r="K108" s="11"/>
+      <c r="L108" s="9"/>
+      <c r="M108" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B109" s="14"/>
+      <c r="B109" s="58"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="14"/>
+      <c r="F109" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="F109" s="14"/>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
-      <c r="K109" s="16"/>
-      <c r="L109" t="s">
+      <c r="K109" s="14"/>
+      <c r="L109" s="16"/>
+      <c r="M109" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="L110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>1</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="G111" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G111" s="18" t="s">
+      <c r="H111" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H111" s="31" t="s">
+      <c r="I111" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="I111" s="17" t="s">
+      <c r="J111" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="J111" s="17" t="s">
+      <c r="K111" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="K111" s="19" t="s">
+      <c r="L111" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="L111" t="s">
+      <c r="M111" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="8">
-        <f>SUM(H111:H111)</f>
-        <v>0</v>
-      </c>
-      <c r="I112" s="24">
+      <c r="C112" s="38"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="8">
         <f>SUM(I111:I111)</f>
         <v>0</v>
       </c>
@@ -5060,138 +5343,147 @@
         <f>SUM(J111:J111)</f>
         <v>0</v>
       </c>
-      <c r="K112" s="25">
+      <c r="K112" s="24">
         <f>SUM(K111:K111)</f>
         <v>0</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="25">
+        <f>SUM(L111:L111)</f>
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
-      <c r="E113" s="9"/>
+      <c r="B113" s="10"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="11"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="12"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="9"/>
-      <c r="L113" t="s">
+      <c r="K113" s="11"/>
+      <c r="L113" s="9"/>
+      <c r="M113" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B114" s="14"/>
+      <c r="B114" s="58"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
-      <c r="E114" s="15" t="s">
+      <c r="E114" s="14"/>
+      <c r="F114" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
-      <c r="K114" s="16"/>
-      <c r="L114" t="s">
+      <c r="K114" s="14"/>
+      <c r="L114" s="16"/>
+      <c r="M114" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="L115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L115" t="s">
+      <c r="M115" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>1</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="D116" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="E116" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="F116" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="G116" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="H116" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="H116" s="31" t="s">
+      <c r="I116" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="I116" s="17" t="s">
+      <c r="J116" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="J116" s="17" t="s">
+      <c r="K116" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="K116" s="19" t="s">
+      <c r="L116" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B117" s="34"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="8">
-        <f>SUM(H116:H116)</f>
-        <v>0</v>
-      </c>
-      <c r="I117" s="24">
+      <c r="C117" s="38"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="8">
         <f>SUM(I116:I116)</f>
         <v>0</v>
       </c>
@@ -5199,138 +5491,147 @@
         <f>SUM(J116:J116)</f>
         <v>0</v>
       </c>
-      <c r="K117" s="25">
+      <c r="K117" s="24">
         <f>SUM(K116:K116)</f>
         <v>0</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" s="25">
+        <f>SUM(L116:L116)</f>
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
-      <c r="E118" s="9"/>
+      <c r="B118" s="10"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="11"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="12"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="9"/>
-      <c r="L118" t="s">
+      <c r="K118" s="11"/>
+      <c r="L118" s="9"/>
+      <c r="M118" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B119" s="14"/>
+      <c r="B119" s="58"/>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="14"/>
+      <c r="F119" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
-      <c r="K119" s="16"/>
-      <c r="L119" t="s">
+      <c r="K119" s="14"/>
+      <c r="L119" s="16"/>
+      <c r="M119" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="H120" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="J120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="L120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>1</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="F121" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="G121" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="H121" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="H121" s="31" t="s">
+      <c r="I121" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="I121" s="17" t="s">
+      <c r="J121" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="J121" s="17" t="s">
+      <c r="K121" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="K121" s="19" t="s">
+      <c r="L121" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="8">
-        <f>SUM(H121:H121)</f>
-        <v>0</v>
-      </c>
-      <c r="I122" s="24">
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="8">
         <f>SUM(I121:I121)</f>
         <v>0</v>
       </c>
@@ -5338,138 +5639,147 @@
         <f>SUM(J121:J121)</f>
         <v>0</v>
       </c>
-      <c r="K122" s="25">
+      <c r="K122" s="24">
         <f>SUM(K121:K121)</f>
         <v>0</v>
       </c>
-      <c r="L122" t="s">
+      <c r="L122" s="25">
+        <f>SUM(L121:L121)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
-      <c r="E123" s="9"/>
+      <c r="B123" s="10"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="11"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="12"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="9"/>
-      <c r="L123" t="s">
+      <c r="K123" s="11"/>
+      <c r="L123" s="9"/>
+      <c r="M123" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="B124" s="14"/>
+      <c r="B124" s="58"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="15" t="s">
+      <c r="E124" s="14"/>
+      <c r="F124" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="F124" s="14"/>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
-      <c r="K124" s="16"/>
-      <c r="L124" t="s">
+      <c r="K124" s="14"/>
+      <c r="L124" s="16"/>
+      <c r="M124" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="J125" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="L125" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>1</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G126" s="18" t="s">
+      <c r="H126" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="H126" s="31" t="s">
+      <c r="I126" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="I126" s="17" t="s">
+      <c r="J126" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="J126" s="17" t="s">
+      <c r="K126" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="K126" s="19" t="s">
+      <c r="L126" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B127" s="34"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34"/>
-      <c r="H127" s="8">
-        <f>SUM(H126:H126)</f>
-        <v>0</v>
-      </c>
-      <c r="I127" s="21">
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="8">
         <f>SUM(I126:I126)</f>
         <v>0</v>
       </c>
@@ -5477,138 +5787,147 @@
         <f>SUM(J126:J126)</f>
         <v>0</v>
       </c>
-      <c r="K127" s="22">
+      <c r="K127" s="21">
         <f>SUM(K126:K126)</f>
         <v>0</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L127" s="22">
+        <f>SUM(L126:L126)</f>
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
-      <c r="E128" s="9"/>
+      <c r="B128" s="10"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="11"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="12"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="9"/>
-      <c r="L128" t="s">
+      <c r="K128" s="11"/>
+      <c r="L128" s="9"/>
+      <c r="M128" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B129" s="14"/>
+      <c r="B129" s="58"/>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
-      <c r="E129" s="15" t="s">
+      <c r="E129" s="14"/>
+      <c r="F129" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="F129" s="14"/>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
-      <c r="K129" s="16"/>
-      <c r="L129" t="s">
+      <c r="K129" s="14"/>
+      <c r="L129" s="16"/>
+      <c r="M129" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="K130" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="L130" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>1</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="D131" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="E131" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="F131" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G131" s="18" t="s">
+      <c r="H131" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="H131" s="31" t="s">
+      <c r="I131" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="I131" s="17" t="s">
+      <c r="J131" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="J131" s="17" t="s">
+      <c r="K131" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="K131" s="19" t="s">
+      <c r="L131" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B132" s="34"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="8">
-        <f>SUM(H131:H131)</f>
-        <v>0</v>
-      </c>
-      <c r="I132" s="21">
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="8">
         <f>SUM(I131:I131)</f>
         <v>0</v>
       </c>
@@ -5616,138 +5935,147 @@
         <f>SUM(J131:J131)</f>
         <v>0</v>
       </c>
-      <c r="K132" s="22">
+      <c r="K132" s="21">
         <f>SUM(K131:K131)</f>
         <v>0</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132" s="22">
+        <f>SUM(L131:L131)</f>
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
-      <c r="E133" s="9"/>
+      <c r="B133" s="10"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="11"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="12"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="9"/>
-      <c r="L133" t="s">
+      <c r="K133" s="11"/>
+      <c r="L133" s="9"/>
+      <c r="M133" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B134" s="14"/>
+      <c r="B134" s="58"/>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="14"/>
+      <c r="F134" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
-      <c r="K134" s="16"/>
-      <c r="L134" t="s">
+      <c r="K134" s="14"/>
+      <c r="L134" s="16"/>
+      <c r="M134" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I135" s="3" t="s">
+      <c r="J135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="K135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="L135" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>1</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="E136" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="F136" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="G136" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G136" s="18" t="s">
+      <c r="H136" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="H136" s="31" t="s">
+      <c r="I136" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="I136" s="17" t="s">
+      <c r="J136" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="J136" s="17" t="s">
+      <c r="K136" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="K136" s="19" t="s">
+      <c r="L136" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="L136" t="s">
+      <c r="M136" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="8">
-        <f>SUM(H136:H136)</f>
-        <v>0</v>
-      </c>
-      <c r="I137" s="21">
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="8">
         <f>SUM(I136:I136)</f>
         <v>0</v>
       </c>
@@ -5755,138 +6083,147 @@
         <f>SUM(J136:J136)</f>
         <v>0</v>
       </c>
-      <c r="K137" s="22">
+      <c r="K137" s="21">
         <f>SUM(K136:K136)</f>
         <v>0</v>
       </c>
-      <c r="L137" t="s">
+      <c r="L137" s="22">
+        <f>SUM(L136:L136)</f>
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
-      <c r="E138" s="9"/>
+      <c r="B138" s="10"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="11"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="12"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="9"/>
-      <c r="L138" t="s">
+      <c r="K138" s="11"/>
+      <c r="L138" s="9"/>
+      <c r="M138" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="B139" s="14"/>
+      <c r="B139" s="58"/>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
-      <c r="E139" s="15" t="s">
+      <c r="E139" s="14"/>
+      <c r="F139" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="F139" s="14"/>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
-      <c r="K139" s="16"/>
-      <c r="L139" t="s">
+      <c r="K139" s="14"/>
+      <c r="L139" s="16"/>
+      <c r="M139" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="I140" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I140" s="3" t="s">
+      <c r="J140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="K140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="L140" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L140" t="s">
+      <c r="M140" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>1</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="D141" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="F141" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="G141" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="G141" s="18" t="s">
+      <c r="H141" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="H141" s="31" t="s">
+      <c r="I141" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="I141" s="17" t="s">
+      <c r="J141" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="J141" s="17" t="s">
+      <c r="K141" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="K141" s="19" t="s">
+      <c r="L141" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="8">
-        <f>SUM(H141:H141)</f>
-        <v>0</v>
-      </c>
-      <c r="I142" s="24">
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="8">
         <f>SUM(I141:I141)</f>
         <v>0</v>
       </c>
@@ -5894,1334 +6231,1415 @@
         <f>SUM(J141:J141)</f>
         <v>0</v>
       </c>
-      <c r="K142" s="25">
+      <c r="K142" s="24">
         <f>SUM(K141:K141)</f>
         <v>0</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="25">
+        <f>SUM(L141:L141)</f>
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
-      <c r="E143" s="9"/>
+      <c r="B143" s="10"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="11"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="12"/>
       <c r="J143" s="11"/>
-      <c r="K143" s="9"/>
-      <c r="L143" t="s">
+      <c r="K143" s="11"/>
+      <c r="L143" s="9"/>
+      <c r="M143" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B144" s="14"/>
+      <c r="B144" s="58"/>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
-      <c r="E144" s="15" t="s">
+      <c r="E144" s="14"/>
+      <c r="F144" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F144" s="14"/>
-      <c r="G144" s="16"/>
-      <c r="H144" t="s">
+      <c r="G144" s="14"/>
+      <c r="H144" s="16"/>
+      <c r="I144" t="s">
         <v>176</v>
       </c>
-      <c r="I144" s="11"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="9"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="11"/>
+      <c r="L144" s="9"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="3"/>
+      <c r="C145" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C145" s="48"/>
-      <c r="D145" s="48"/>
-      <c r="E145" s="3" t="s">
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="G145" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="H145" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>176</v>
       </c>
-      <c r="I145" s="11"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="9"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K145" s="11"/>
+      <c r="L145" s="9"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="27">
         <v>1</v>
       </c>
-      <c r="B146" s="53" t="s">
+      <c r="B146" s="59"/>
+      <c r="C146" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="28" t="s">
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F146" s="28" t="s">
+      <c r="G146" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G146" s="29" t="s">
+      <c r="H146" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>176</v>
       </c>
-      <c r="I146" s="11"/>
       <c r="J146" s="11"/>
-      <c r="K146" s="9"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K146" s="11"/>
+      <c r="L146" s="9"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
-      <c r="E147" s="9"/>
+      <c r="B147" s="10"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="11"/>
-      <c r="H147" t="s">
+      <c r="G147" s="9"/>
+      <c r="H147" s="11"/>
+      <c r="I147" t="s">
         <v>176</v>
       </c>
-      <c r="I147" s="11"/>
       <c r="J147" s="11"/>
-      <c r="K147" s="9"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K147" s="11"/>
+      <c r="L147" s="9"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B148" s="14"/>
+      <c r="B148" s="58"/>
       <c r="C148" s="14"/>
       <c r="D148" s="14"/>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="14"/>
+      <c r="F148" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="F148" s="14"/>
-      <c r="G148" s="16"/>
-      <c r="H148" t="s">
+      <c r="G148" s="14"/>
+      <c r="H148" s="16"/>
+      <c r="I148" t="s">
         <v>354</v>
       </c>
-      <c r="I148" s="11"/>
       <c r="J148" s="11"/>
-      <c r="K148" s="9"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K148" s="11"/>
+      <c r="L148" s="9"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B149" s="48" t="s">
+      <c r="B149" s="3"/>
+      <c r="C149" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="3" t="s">
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="G149" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="H149" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>354</v>
       </c>
-      <c r="I149" s="11"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="9"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K149" s="11"/>
+      <c r="L149" s="9"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="27">
         <v>1</v>
       </c>
-      <c r="B150" s="53" t="s">
+      <c r="B150" s="59"/>
+      <c r="C150" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="C150" s="53"/>
-      <c r="D150" s="53"/>
-      <c r="E150" s="28" t="s">
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="F150" s="28" t="s">
+      <c r="G150" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="H150" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>354</v>
       </c>
-      <c r="I150" s="11"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="9"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K150" s="11"/>
+      <c r="L150" s="9"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
-      <c r="E151" s="9"/>
+      <c r="B151" s="10"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="11"/>
-      <c r="H151" t="s">
+      <c r="G151" s="9"/>
+      <c r="H151" s="11"/>
+      <c r="I151" t="s">
         <v>354</v>
       </c>
-      <c r="I151" s="11"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="9"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K151" s="11"/>
+      <c r="L151" s="9"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="B152" s="14"/>
+      <c r="B152" s="58"/>
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
-      <c r="E152" s="15" t="s">
+      <c r="E152" s="14"/>
+      <c r="F152" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="F152" s="14"/>
-      <c r="G152" s="16"/>
-      <c r="H152" t="s">
+      <c r="G152" s="14"/>
+      <c r="H152" s="16"/>
+      <c r="I152" t="s">
         <v>361</v>
       </c>
-      <c r="I152" s="11"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="9"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K152" s="11"/>
+      <c r="L152" s="9"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="3"/>
+      <c r="C153" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C153" s="48"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="3" t="s">
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="G153" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="4" t="s">
+      <c r="H153" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>361</v>
       </c>
-      <c r="I153" s="11"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="9"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K153" s="11"/>
+      <c r="L153" s="9"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="27">
         <v>1</v>
       </c>
-      <c r="B154" s="53" t="s">
+      <c r="B154" s="59"/>
+      <c r="C154" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C154" s="53"/>
-      <c r="D154" s="53"/>
-      <c r="E154" s="28" t="s">
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="F154" s="28" t="s">
+      <c r="G154" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="H154" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>361</v>
       </c>
-      <c r="I154" s="11"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="9"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K154" s="11"/>
+      <c r="L154" s="9"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
-      <c r="E155" s="9"/>
+      <c r="B155" s="10"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="11"/>
-      <c r="H155" t="s">
+      <c r="G155" s="9"/>
+      <c r="H155" s="11"/>
+      <c r="I155" t="s">
         <v>361</v>
       </c>
-      <c r="I155" s="11"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="9"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K155" s="11"/>
+      <c r="L155" s="9"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B156" s="14"/>
+      <c r="B156" s="58"/>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
-      <c r="E156" s="15" t="s">
+      <c r="E156" s="14"/>
+      <c r="F156" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="F156" s="14"/>
-      <c r="G156" s="16"/>
-      <c r="H156" t="s">
+      <c r="G156" s="14"/>
+      <c r="H156" s="16"/>
+      <c r="I156" t="s">
         <v>368</v>
       </c>
-      <c r="I156" s="11"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="9"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K156" s="11"/>
+      <c r="L156" s="9"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="3"/>
+      <c r="C157" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C157" s="48"/>
-      <c r="D157" s="48"/>
-      <c r="E157" s="3" t="s">
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="G157" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="4" t="s">
+      <c r="H157" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>368</v>
       </c>
-      <c r="I157" s="11"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="9"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K157" s="11"/>
+      <c r="L157" s="9"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="27">
         <v>1</v>
       </c>
-      <c r="B158" s="53" t="s">
+      <c r="B158" s="59"/>
+      <c r="C158" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="C158" s="53"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="28" t="s">
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="F158" s="28" t="s">
+      <c r="G158" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="H158" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>368</v>
       </c>
-      <c r="I158" s="11"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="9"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K158" s="11"/>
+      <c r="L158" s="9"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="E159" s="9"/>
+      <c r="B159" s="10"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="11"/>
-      <c r="H159" t="s">
+      <c r="G159" s="9"/>
+      <c r="H159" s="11"/>
+      <c r="I159" t="s">
         <v>368</v>
       </c>
-      <c r="I159" s="11"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="9"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K159" s="11"/>
+      <c r="L159" s="9"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="B160" s="14"/>
+      <c r="B160" s="58"/>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
-      <c r="E160" s="15" t="s">
+      <c r="E160" s="14"/>
+      <c r="F160" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="F160" s="14"/>
-      <c r="G160" s="16"/>
-      <c r="H160" t="s">
+      <c r="G160" s="14"/>
+      <c r="H160" s="16"/>
+      <c r="I160" t="s">
         <v>375</v>
       </c>
-      <c r="I160" s="11"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="9"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K160" s="11"/>
+      <c r="L160" s="9"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B161" s="48" t="s">
+      <c r="B161" s="3"/>
+      <c r="C161" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="3" t="s">
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F161" s="3" t="s">
+      <c r="G161" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="H161" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>375</v>
       </c>
-      <c r="I161" s="11"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="9"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K161" s="11"/>
+      <c r="L161" s="9"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="27">
         <v>1</v>
       </c>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="59"/>
+      <c r="C162" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="C162" s="53"/>
-      <c r="D162" s="53"/>
-      <c r="E162" s="28" t="s">
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="F162" s="28" t="s">
+      <c r="G162" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="G162" s="29" t="s">
+      <c r="H162" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>375</v>
       </c>
-      <c r="J162" s="11"/>
-      <c r="K162" s="9"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K162" s="11"/>
+      <c r="L162" s="9"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="E163" s="9"/>
+      <c r="B163" s="10"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="11"/>
-      <c r="H163" t="s">
+      <c r="G163" s="9"/>
+      <c r="H163" s="11"/>
+      <c r="I163" t="s">
         <v>375</v>
       </c>
-      <c r="J163" s="11"/>
-      <c r="K163" s="9"/>
-    </row>
-    <row r="164" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="K163" s="11"/>
+      <c r="L163" s="9"/>
+    </row>
+    <row r="164" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E164" s="9"/>
+      <c r="B164" s="1"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="9"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G164" s="9"/>
+      <c r="H164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="9"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B165" s="14"/>
+      <c r="B165" s="58"/>
       <c r="C165" s="14"/>
       <c r="D165" s="14"/>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="14"/>
+      <c r="F165" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="F165" s="14"/>
       <c r="G165" s="14"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
-      <c r="J165" s="16"/>
-      <c r="K165" t="s">
+      <c r="J165" s="14"/>
+      <c r="K165" s="16"/>
+      <c r="L165" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="E166" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="H166" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="I166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="J166" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="K166" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K166" t="s">
+      <c r="L166" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>1</v>
       </c>
       <c r="B167" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="D167" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="E167" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="F167" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="G167" s="18" t="s">
+      <c r="H167" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="H167" s="31" t="s">
+      <c r="I167" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="I167" s="17" t="s">
+      <c r="J167" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="J167" s="19" t="s">
+      <c r="K167" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="K167" t="s">
+      <c r="L167" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B168" s="34"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="8">
-        <f>SUM(H167:H167)</f>
-        <v>0</v>
-      </c>
-      <c r="I168" s="21">
+      <c r="C168" s="38"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="38"/>
+      <c r="G168" s="38"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="8">
         <f>SUM(I167:I167)</f>
         <v>0</v>
       </c>
-      <c r="J168" s="22">
+      <c r="J168" s="21">
         <f>SUM(J167:J167)</f>
         <v>0</v>
       </c>
-      <c r="K168" t="s">
+      <c r="K168" s="22">
+        <f>SUM(K167:K167)</f>
+        <v>0</v>
+      </c>
+      <c r="L168" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K169" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L169" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="B170" s="14"/>
+      <c r="B170" s="58"/>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
-      <c r="E170" s="13" t="str">
+      <c r="E170" s="14"/>
+      <c r="F170" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
-      <c r="F170" s="14"/>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
-      <c r="J170" s="16"/>
-      <c r="K170" t="s">
+      <c r="J170" s="14"/>
+      <c r="K170" s="16"/>
+      <c r="L170" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="G171" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="H171" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="I171" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I171" s="3" t="s">
+      <c r="J171" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="K171" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K171" t="s">
+      <c r="L171" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="44" t="s">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B172" s="55"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="55"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
-      <c r="I172" s="55"/>
-      <c r="J172" s="56"/>
-      <c r="K172" t="s">
+      <c r="B172" s="56"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
+      <c r="G172" s="39"/>
+      <c r="H172" s="39"/>
+      <c r="I172" s="39"/>
+      <c r="J172" s="39"/>
+      <c r="K172" s="40"/>
+      <c r="L172" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="8">
-        <f>SUM(H172:H172)</f>
-        <v>0</v>
-      </c>
-      <c r="I173" s="21">
+      <c r="C173" s="38"/>
+      <c r="D173" s="38"/>
+      <c r="E173" s="38"/>
+      <c r="F173" s="38"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="38"/>
+      <c r="I173" s="8">
         <f>SUM(I172:I172)</f>
         <v>0</v>
       </c>
-      <c r="J173" s="22">
+      <c r="J173" s="21">
         <f>SUM(J172:J172)</f>
         <v>0</v>
       </c>
-      <c r="K173" t="s">
+      <c r="K173" s="22">
+        <f>SUM(K172:K172)</f>
+        <v>0</v>
+      </c>
+      <c r="L173" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K174" t="s">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L174" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="B175" s="14"/>
+      <c r="B175" s="58"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
-      <c r="E175" s="15" t="s">
+      <c r="E175" s="14"/>
+      <c r="F175" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="F175" s="14"/>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
-      <c r="J175" s="16"/>
-      <c r="K175" t="s">
+      <c r="J175" s="14"/>
+      <c r="K175" s="16"/>
+      <c r="L175" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="H176" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="I176" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I176" s="3" t="s">
+      <c r="J176" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="K176" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K176" t="s">
+      <c r="L176" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>1</v>
       </c>
       <c r="B177" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="D177" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="E177" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="F177" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="G177" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G177" s="18" t="s">
+      <c r="H177" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="H177" s="31" t="s">
+      <c r="I177" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="I177" s="17" t="s">
+      <c r="J177" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="J177" s="19" t="s">
+      <c r="K177" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="K177" t="s">
+      <c r="L177" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="34"/>
-      <c r="G178" s="34"/>
-      <c r="H178" s="8">
-        <f>SUM(H177:H177)</f>
-        <v>0</v>
-      </c>
-      <c r="I178" s="21">
+      <c r="C178" s="38"/>
+      <c r="D178" s="38"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="38"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="8">
         <f>SUM(I177:I177)</f>
         <v>0</v>
       </c>
-      <c r="J178" s="22">
+      <c r="J178" s="21">
         <f>SUM(J177:J177)</f>
         <v>0</v>
       </c>
-      <c r="K178" t="s">
+      <c r="K178" s="22">
+        <f>SUM(K177:K177)</f>
+        <v>0</v>
+      </c>
+      <c r="L178" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
-      <c r="E179" s="9"/>
+      <c r="B179" s="10"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="9"/>
-      <c r="K179" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="9"/>
+      <c r="L179" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B180" s="14"/>
+      <c r="B180" s="58"/>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
-      <c r="E180" s="15" t="s">
+      <c r="E180" s="14"/>
+      <c r="F180" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="F180" s="14"/>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
-      <c r="J180" s="16"/>
-      <c r="K180" t="s">
+      <c r="J180" s="14"/>
+      <c r="K180" s="16"/>
+      <c r="L180" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="E181" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="G181" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="H181" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="I181" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I181" s="3" t="s">
+      <c r="J181" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J181" s="4" t="s">
+      <c r="K181" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K181" t="s">
+      <c r="L181" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>1</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="E182" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="F182" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="G182" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G182" s="18" t="s">
+      <c r="H182" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="H182" s="31" t="s">
+      <c r="I182" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="I182" s="17" t="s">
+      <c r="J182" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="J182" s="19" t="s">
+      <c r="K182" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="K182" t="s">
+      <c r="L182" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B183" s="34"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="34"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="34"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="8">
-        <f>SUM(H182:H182)</f>
-        <v>0</v>
-      </c>
-      <c r="I183" s="21">
+      <c r="C183" s="38"/>
+      <c r="D183" s="38"/>
+      <c r="E183" s="38"/>
+      <c r="F183" s="38"/>
+      <c r="G183" s="38"/>
+      <c r="H183" s="38"/>
+      <c r="I183" s="8">
         <f>SUM(I182:I182)</f>
         <v>0</v>
       </c>
-      <c r="J183" s="22">
+      <c r="J183" s="21">
         <f>SUM(J182:J182)</f>
         <v>0</v>
       </c>
-      <c r="K183" t="s">
+      <c r="K183" s="22">
+        <f>SUM(K182:K182)</f>
+        <v>0</v>
+      </c>
+      <c r="L183" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="E184" s="9"/>
+      <c r="B184" s="10"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="11"/>
-      <c r="J184" s="9"/>
-      <c r="K184" t="s">
+      <c r="G184" s="9"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="9"/>
+      <c r="L184" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B185" s="14"/>
+      <c r="B185" s="58"/>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
-      <c r="E185" s="15" t="s">
+      <c r="E185" s="14"/>
+      <c r="F185" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="F185" s="14"/>
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
-      <c r="J185" s="16"/>
-      <c r="K185" t="s">
+      <c r="J185" s="14"/>
+      <c r="K185" s="16"/>
+      <c r="L185" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="E186" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="H186" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H186" s="3" t="s">
+      <c r="I186" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I186" s="3" t="s">
+      <c r="J186" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J186" s="4" t="s">
+      <c r="K186" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K186" t="s">
+      <c r="L186" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>1</v>
       </c>
       <c r="B187" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="D187" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="E187" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="F187" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="G187" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="G187" s="18" t="s">
+      <c r="H187" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="H187" s="31" t="s">
+      <c r="I187" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="I187" s="17" t="s">
+      <c r="J187" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="J187" s="19" t="s">
+      <c r="K187" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="K187" t="s">
+      <c r="L187" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B188" s="34"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="34"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="8">
-        <f>SUM(H187:H187)</f>
-        <v>0</v>
-      </c>
-      <c r="I188" s="21">
+      <c r="C188" s="38"/>
+      <c r="D188" s="38"/>
+      <c r="E188" s="38"/>
+      <c r="F188" s="38"/>
+      <c r="G188" s="38"/>
+      <c r="H188" s="38"/>
+      <c r="I188" s="8">
         <f>SUM(I187:I187)</f>
         <v>0</v>
       </c>
-      <c r="J188" s="22">
+      <c r="J188" s="21">
         <f>SUM(J187:J187)</f>
         <v>0</v>
       </c>
-      <c r="K188" t="s">
+      <c r="K188" s="22">
+        <f>SUM(K187:K187)</f>
+        <v>0</v>
+      </c>
+      <c r="L188" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
-      <c r="E189" s="9"/>
+      <c r="B189" s="10"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="11"/>
-      <c r="J189" s="9"/>
-      <c r="K189" t="s">
+      <c r="G189" s="9"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="9"/>
+      <c r="L189" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B190" s="14"/>
+      <c r="B190" s="58"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
-      <c r="E190" s="15" t="s">
+      <c r="E190" s="14"/>
+      <c r="F190" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="F190" s="14"/>
       <c r="G190" s="14"/>
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
-      <c r="J190" s="16"/>
-      <c r="K190" t="s">
+      <c r="J190" s="14"/>
+      <c r="K190" s="16"/>
+      <c r="L190" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D191" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="E191" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="F191" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="H191" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="I191" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I191" s="3" t="s">
+      <c r="J191" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J191" s="4" t="s">
+      <c r="K191" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K191" t="s">
+      <c r="L191" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>1</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="D192" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="E192" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="F192" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="G192" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G192" s="18" t="s">
+      <c r="H192" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="H192" s="31" t="s">
+      <c r="I192" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="I192" s="17" t="s">
+      <c r="J192" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="J192" s="19" t="s">
+      <c r="K192" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="K192" t="s">
+      <c r="L192" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="34"/>
-      <c r="G193" s="34"/>
-      <c r="H193" s="8">
-        <f>SUM(H192:H192)</f>
-        <v>0</v>
-      </c>
-      <c r="I193" s="24">
+      <c r="C193" s="38"/>
+      <c r="D193" s="38"/>
+      <c r="E193" s="38"/>
+      <c r="F193" s="38"/>
+      <c r="G193" s="38"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="8">
         <f>SUM(I192:I192)</f>
         <v>0</v>
       </c>
-      <c r="J193" s="25">
+      <c r="J193" s="24">
         <f>SUM(J192:J192)</f>
         <v>0</v>
       </c>
-      <c r="K193" t="s">
+      <c r="K193" s="25">
+        <f>SUM(K192:K192)</f>
+        <v>0</v>
+      </c>
+      <c r="L193" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
-      <c r="E194" s="9"/>
+      <c r="B194" s="10"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="9"/>
-      <c r="K194" t="s">
+      <c r="G194" s="9"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="9"/>
+      <c r="L194" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B196" s="48" t="s">
+      <c r="B196" s="3"/>
+      <c r="C196" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C196" s="48"/>
-      <c r="D196" s="48"/>
-      <c r="E196" s="3" t="s">
+      <c r="D196" s="31"/>
+      <c r="E196" s="31"/>
+      <c r="F196" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="H196" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H196" s="3" t="s">
+      <c r="I196" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I196" s="4" t="s">
+      <c r="J196" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>1</v>
       </c>
-      <c r="B197" s="49" t="s">
+      <c r="B197" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="C197" s="49"/>
-      <c r="D197" s="49"/>
-      <c r="E197" s="6" t="s">
+      <c r="C197" s="41"/>
+      <c r="D197" s="41"/>
+      <c r="E197" s="41"/>
+      <c r="F197" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="G197" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G197" s="20" t="s">
+      <c r="H197" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="H197" s="20" t="s">
+      <c r="I197" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="I197" s="23" t="s">
+      <c r="J197" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="J197" s="6" t="s">
+      <c r="K197" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198" s="44" t="s">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B198" s="45"/>
-      <c r="C198" s="45"/>
-      <c r="D198" s="45"/>
-      <c r="E198" s="45"/>
-      <c r="F198" s="45"/>
-      <c r="G198" s="45"/>
-      <c r="H198" s="45"/>
-      <c r="I198" s="46"/>
-      <c r="J198" s="6" t="s">
+      <c r="B198" s="56"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="36"/>
+      <c r="J198" s="37"/>
+      <c r="K198" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="54"/>
-      <c r="C199" s="54"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="21">
-        <f>SUM(G197:G197)</f>
-        <v>0</v>
-      </c>
+      <c r="B199" s="34"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+      <c r="G199" s="34"/>
       <c r="H199" s="21">
         <f>SUM(H197:H197)</f>
         <v>0</v>
       </c>
-      <c r="I199" s="22">
+      <c r="I199" s="21">
         <f>SUM(I197:I197)</f>
+        <v>0</v>
+      </c>
+      <c r="J199" s="22">
+        <f>SUM(J197:J197)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A198:I198"/>
-    <mergeCell ref="A183:G183"/>
-    <mergeCell ref="A188:G188"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="A172:J172"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="A127:G127"/>
-    <mergeCell ref="A82:G82"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="A72:G72"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="A168:G168"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="A178:G178"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="C5:L5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="A132:H132"/>
+    <mergeCell ref="A137:H137"/>
+    <mergeCell ref="A142:H142"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="A168:H168"/>
+    <mergeCell ref="A173:H173"/>
+    <mergeCell ref="A178:H178"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A122:H122"/>
+    <mergeCell ref="A127:H127"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="A198:J198"/>
+    <mergeCell ref="A183:H183"/>
+    <mergeCell ref="A188:H188"/>
+    <mergeCell ref="A193:H193"/>
+    <mergeCell ref="A172:K172"/>
+    <mergeCell ref="B197:E197"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
